--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,15 @@
     <t>['28', '56']</t>
   </si>
   <si>
+    <t>['29', '41', '48']</t>
+  </si>
+  <si>
+    <t>['15', '90+2']</t>
+  </si>
+  <si>
+    <t>['69', '73']</t>
+  </si>
+  <si>
     <t>['47', '71']</t>
   </si>
   <si>
@@ -1025,6 +1034,9 @@
   </si>
   <si>
     <t>['54', '85']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK247"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1732,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1821,7 +1833,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1908,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -2203,7 +2215,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2481,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT6">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2585,7 +2597,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2776,7 +2788,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2863,10 +2875,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2967,7 +2979,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3054,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3158,7 +3170,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3245,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -3436,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3540,7 +3552,7 @@
         <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3630,7 +3642,7 @@
         <v>1.24</v>
       </c>
       <c r="AT12">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3731,7 +3743,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3821,7 +3833,7 @@
         <v>1.52</v>
       </c>
       <c r="AT13">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3922,7 +3934,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4203,7 +4215,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU15">
         <v>0.73</v>
@@ -4394,7 +4406,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU16">
         <v>1.99</v>
@@ -4582,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT17">
         <v>0.8100000000000001</v>
@@ -4877,7 +4889,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4964,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT19">
         <v>1.71</v>
@@ -5155,7 +5167,7 @@
         <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT20">
         <v>1</v>
@@ -5259,7 +5271,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5349,7 +5361,7 @@
         <v>1.52</v>
       </c>
       <c r="AT21">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU21">
         <v>0.82</v>
@@ -5450,7 +5462,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -5540,7 +5552,7 @@
         <v>1.24</v>
       </c>
       <c r="AT22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU22">
         <v>1.23</v>
@@ -5641,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5728,10 +5740,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT23">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU23">
         <v>1.54</v>
@@ -5919,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT24">
         <v>1.71</v>
@@ -6023,7 +6035,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6110,10 +6122,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT25">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU25">
         <v>1.52</v>
@@ -6214,7 +6226,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6495,7 +6507,7 @@
         <v>2.33</v>
       </c>
       <c r="AT27">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6683,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT28">
         <v>0.57</v>
@@ -6874,7 +6886,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT29">
         <v>0.8100000000000001</v>
@@ -6978,7 +6990,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7068,7 +7080,7 @@
         <v>0.71</v>
       </c>
       <c r="AT30">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU30">
         <v>1.28</v>
@@ -7169,7 +7181,7 @@
         <v>77</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7256,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT31">
         <v>0.8100000000000001</v>
@@ -7360,7 +7372,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7450,7 +7462,7 @@
         <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -8020,10 +8032,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT35">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8124,7 +8136,7 @@
         <v>77</v>
       </c>
       <c r="P36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8315,7 +8327,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8405,7 +8417,7 @@
         <v>0.71</v>
       </c>
       <c r="AT37">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8506,7 +8518,7 @@
         <v>77</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8596,7 +8608,7 @@
         <v>1.33</v>
       </c>
       <c r="AT38">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU38">
         <v>1</v>
@@ -8784,10 +8796,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT39">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU39">
         <v>1.36</v>
@@ -8888,7 +8900,7 @@
         <v>77</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8975,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT40">
         <v>0.57</v>
@@ -9079,7 +9091,7 @@
         <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9166,10 +9178,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU41">
         <v>1.06</v>
@@ -9270,7 +9282,7 @@
         <v>77</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9357,7 +9369,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT42">
         <v>0.95</v>
@@ -9742,7 +9754,7 @@
         <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU44">
         <v>1.49</v>
@@ -10034,7 +10046,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10121,7 +10133,7 @@
         <v>2.5</v>
       </c>
       <c r="AS46">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT46">
         <v>1.71</v>
@@ -10225,7 +10237,7 @@
         <v>107</v>
       </c>
       <c r="P47" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10607,7 +10619,7 @@
         <v>109</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10798,7 +10810,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10888,7 +10900,7 @@
         <v>0.71</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU50">
         <v>1.34</v>
@@ -10989,7 +11001,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11076,10 +11088,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT51">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU51">
         <v>1.48</v>
@@ -11267,10 +11279,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT52">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU52">
         <v>1.41</v>
@@ -11371,7 +11383,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11458,10 +11470,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT53">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11562,7 +11574,7 @@
         <v>112</v>
       </c>
       <c r="P54" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11649,10 +11661,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT54">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU54">
         <v>1.35</v>
@@ -11840,7 +11852,7 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
         <v>0.95</v>
@@ -12135,7 +12147,7 @@
         <v>77</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12225,7 +12237,7 @@
         <v>1.24</v>
       </c>
       <c r="AT57">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU57">
         <v>1.58</v>
@@ -12413,7 +12425,7 @@
         <v>0.6</v>
       </c>
       <c r="AS58">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
         <v>0.57</v>
@@ -13177,10 +13189,10 @@
         <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT62">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13559,10 +13571,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT64">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU64">
         <v>1.37</v>
@@ -13663,7 +13675,7 @@
         <v>119</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13750,10 +13762,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU65">
         <v>1.35</v>
@@ -13941,10 +13953,10 @@
         <v>2.5</v>
       </c>
       <c r="AS66">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14045,7 +14057,7 @@
         <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14132,10 +14144,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT67">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU67">
         <v>1.46</v>
@@ -14323,10 +14335,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT68">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU68">
         <v>1.33</v>
@@ -14427,7 +14439,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14514,7 +14526,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT69">
         <v>2</v>
@@ -14618,7 +14630,7 @@
         <v>77</v>
       </c>
       <c r="P70" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q70">
         <v>16</v>
@@ -14705,10 +14717,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT70">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU70">
         <v>1.5</v>
@@ -14809,7 +14821,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -15087,10 +15099,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU72">
         <v>1.22</v>
@@ -15191,7 +15203,7 @@
         <v>77</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15281,7 +15293,7 @@
         <v>1.52</v>
       </c>
       <c r="AT73">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15851,7 +15863,7 @@
         <v>2.17</v>
       </c>
       <c r="AS76">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT76">
         <v>1.71</v>
@@ -16045,7 +16057,7 @@
         <v>2.33</v>
       </c>
       <c r="AT77">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU77">
         <v>1.42</v>
@@ -16146,7 +16158,7 @@
         <v>129</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16236,7 +16248,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16424,7 +16436,7 @@
         <v>1.17</v>
       </c>
       <c r="AS79">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT79">
         <v>0.95</v>
@@ -16528,7 +16540,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16618,7 +16630,7 @@
         <v>1.52</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16719,7 +16731,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16806,10 +16818,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT81">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -16997,7 +17009,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -17188,7 +17200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS83">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -17379,10 +17391,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT84">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17483,7 +17495,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17573,7 +17585,7 @@
         <v>1.24</v>
       </c>
       <c r="AT85">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17674,7 +17686,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17764,7 +17776,7 @@
         <v>0.71</v>
       </c>
       <c r="AT86">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17865,7 +17877,7 @@
         <v>77</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17952,7 +17964,7 @@
         <v>0.43</v>
       </c>
       <c r="AS87">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT87">
         <v>0.57</v>
@@ -18143,7 +18155,7 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT88">
         <v>0.8100000000000001</v>
@@ -18334,10 +18346,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT89">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU89">
         <v>1.83</v>
@@ -18629,7 +18641,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18719,7 +18731,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU91">
         <v>0.99</v>
@@ -18820,7 +18832,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -19098,10 +19110,10 @@
         <v>1.43</v>
       </c>
       <c r="AS93">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU93">
         <v>1.48</v>
@@ -19292,7 +19304,7 @@
         <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU94">
         <v>1.27</v>
@@ -19393,7 +19405,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19480,7 +19492,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT95">
         <v>1.71</v>
@@ -19584,7 +19596,7 @@
         <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19671,7 +19683,7 @@
         <v>1.86</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT96">
         <v>2</v>
@@ -19865,7 +19877,7 @@
         <v>1.24</v>
       </c>
       <c r="AT97">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20053,7 +20065,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
         <v>0.57</v>
@@ -20247,7 +20259,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU99">
         <v>0.98</v>
@@ -20348,7 +20360,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20435,10 +20447,10 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT100">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20539,7 +20551,7 @@
         <v>77</v>
       </c>
       <c r="P101" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20626,10 +20638,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT101">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU101">
         <v>1.69</v>
@@ -20817,10 +20829,10 @@
         <v>1.63</v>
       </c>
       <c r="AS102">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT102">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU102">
         <v>1.48</v>
@@ -20921,7 +20933,7 @@
         <v>77</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21112,7 +21124,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21199,7 +21211,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21393,7 +21405,7 @@
         <v>1.33</v>
       </c>
       <c r="AT105">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU105">
         <v>1.27</v>
@@ -21876,7 +21888,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21963,7 +21975,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT108">
         <v>2</v>
@@ -22157,7 +22169,7 @@
         <v>2.33</v>
       </c>
       <c r="AT109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -22345,10 +22357,10 @@
         <v>1.11</v>
       </c>
       <c r="AS110">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT110">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22536,7 +22548,7 @@
         <v>1.22</v>
       </c>
       <c r="AS111">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT111">
         <v>0.95</v>
@@ -22730,7 +22742,7 @@
         <v>0.71</v>
       </c>
       <c r="AT112">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU112">
         <v>1.57</v>
@@ -22831,7 +22843,7 @@
         <v>149</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22918,10 +22930,10 @@
         <v>1.44</v>
       </c>
       <c r="AS113">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT113">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU113">
         <v>1.54</v>
@@ -23022,7 +23034,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23109,10 +23121,10 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU114">
         <v>1.67</v>
@@ -23213,7 +23225,7 @@
         <v>77</v>
       </c>
       <c r="P115" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23300,10 +23312,10 @@
         <v>1.56</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT115">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU115">
         <v>1.38</v>
@@ -23404,7 +23416,7 @@
         <v>77</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23595,7 +23607,7 @@
         <v>151</v>
       </c>
       <c r="P117" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23876,7 +23888,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU118">
         <v>1.02</v>
@@ -23977,7 +23989,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24168,7 +24180,7 @@
         <v>153</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24446,7 +24458,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT121">
         <v>0.8100000000000001</v>
@@ -24637,10 +24649,10 @@
         <v>1.1</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT122">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU122">
         <v>1.55</v>
@@ -24828,10 +24840,10 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT123">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -24932,7 +24944,7 @@
         <v>156</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25019,10 +25031,10 @@
         <v>0.9</v>
       </c>
       <c r="AS124">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT124">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU124">
         <v>1.72</v>
@@ -25213,7 +25225,7 @@
         <v>1.52</v>
       </c>
       <c r="AT125">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU125">
         <v>1.51</v>
@@ -25314,7 +25326,7 @@
         <v>157</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25401,7 +25413,7 @@
         <v>1.1</v>
       </c>
       <c r="AS126">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT126">
         <v>0.95</v>
@@ -25505,7 +25517,7 @@
         <v>158</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25592,10 +25604,10 @@
         <v>1.1</v>
       </c>
       <c r="AS127">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT127">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU127">
         <v>1.36</v>
@@ -25696,7 +25708,7 @@
         <v>117</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25783,10 +25795,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -26269,7 +26281,7 @@
         <v>77</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26460,7 +26472,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26651,7 +26663,7 @@
         <v>77</v>
       </c>
       <c r="P133" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26842,7 +26854,7 @@
         <v>160</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26932,7 +26944,7 @@
         <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU134">
         <v>1.13</v>
@@ -27120,7 +27132,7 @@
         <v>1.09</v>
       </c>
       <c r="AS135">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT135">
         <v>0.95</v>
@@ -27311,7 +27323,7 @@
         <v>2.36</v>
       </c>
       <c r="AS136">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT136">
         <v>1.71</v>
@@ -27502,10 +27514,10 @@
         <v>1.82</v>
       </c>
       <c r="AS137">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT137">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27606,7 +27618,7 @@
         <v>110</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27693,10 +27705,10 @@
         <v>1.36</v>
       </c>
       <c r="AS138">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT138">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU138">
         <v>1.51</v>
@@ -27797,7 +27809,7 @@
         <v>163</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>2</v>
@@ -27887,7 +27899,7 @@
         <v>2.33</v>
       </c>
       <c r="AT139">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU139">
         <v>1.38</v>
@@ -28075,7 +28087,7 @@
         <v>0.91</v>
       </c>
       <c r="AS140">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT140">
         <v>0.57</v>
@@ -28179,7 +28191,7 @@
         <v>165</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28266,7 +28278,7 @@
         <v>2.09</v>
       </c>
       <c r="AS141">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT141">
         <v>2</v>
@@ -28460,7 +28472,7 @@
         <v>1.33</v>
       </c>
       <c r="AT142">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU142">
         <v>1.21</v>
@@ -28561,7 +28573,7 @@
         <v>77</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28648,10 +28660,10 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT143">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28752,7 +28764,7 @@
         <v>167</v>
       </c>
       <c r="P144" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28842,7 +28854,7 @@
         <v>1.52</v>
       </c>
       <c r="AT144">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU144">
         <v>1.52</v>
@@ -29221,7 +29233,7 @@
         <v>0.64</v>
       </c>
       <c r="AS146">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT146">
         <v>0.8100000000000001</v>
@@ -29412,7 +29424,7 @@
         <v>1.08</v>
       </c>
       <c r="AS147">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT147">
         <v>0.95</v>
@@ -29516,7 +29528,7 @@
         <v>171</v>
       </c>
       <c r="P148" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29603,7 +29615,7 @@
         <v>2.17</v>
       </c>
       <c r="AS148">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT148">
         <v>1.71</v>
@@ -29797,7 +29809,7 @@
         <v>2.33</v>
       </c>
       <c r="AT149">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU149">
         <v>1.38</v>
@@ -29898,7 +29910,7 @@
         <v>173</v>
       </c>
       <c r="P150" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29988,7 +30000,7 @@
         <v>0.71</v>
       </c>
       <c r="AT150">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -30179,7 +30191,7 @@
         <v>1.33</v>
       </c>
       <c r="AT151">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU151">
         <v>1.12</v>
@@ -30280,7 +30292,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -30367,7 +30379,7 @@
         <v>1.17</v>
       </c>
       <c r="AS152">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30561,7 +30573,7 @@
         <v>1.52</v>
       </c>
       <c r="AT153">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU153">
         <v>1.55</v>
@@ -30662,7 +30674,7 @@
         <v>77</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30749,10 +30761,10 @@
         <v>2.08</v>
       </c>
       <c r="AS154">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT154">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU154">
         <v>1.49</v>
@@ -30853,7 +30865,7 @@
         <v>176</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30940,7 +30952,7 @@
         <v>1.92</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT155">
         <v>2</v>
@@ -31131,10 +31143,10 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT156">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU156">
         <v>1.44</v>
@@ -31325,7 +31337,7 @@
         <v>1.24</v>
       </c>
       <c r="AT157">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU157">
         <v>1.47</v>
@@ -31426,7 +31438,7 @@
         <v>153</v>
       </c>
       <c r="P158" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31617,7 +31629,7 @@
         <v>77</v>
       </c>
       <c r="P159" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q159">
         <v>6</v>
@@ -31704,7 +31716,7 @@
         <v>0.58</v>
       </c>
       <c r="AS159">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT159">
         <v>0.8100000000000001</v>
@@ -31808,7 +31820,7 @@
         <v>178</v>
       </c>
       <c r="P160" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -32089,7 +32101,7 @@
         <v>2.33</v>
       </c>
       <c r="AT161">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU161">
         <v>1.44</v>
@@ -32280,7 +32292,7 @@
         <v>1.33</v>
       </c>
       <c r="AT162">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU162">
         <v>1.21</v>
@@ -32468,7 +32480,7 @@
         <v>0.83</v>
       </c>
       <c r="AS163">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT163">
         <v>0.57</v>
@@ -32572,7 +32584,7 @@
         <v>181</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32659,10 +32671,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT164">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU164">
         <v>1.5</v>
@@ -32763,7 +32775,7 @@
         <v>182</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32850,10 +32862,10 @@
         <v>0.86</v>
       </c>
       <c r="AS165">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT165">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU165">
         <v>1.45</v>
@@ -33041,10 +33053,10 @@
         <v>2.15</v>
       </c>
       <c r="AS166">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT166">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU166">
         <v>1.66</v>
@@ -33235,7 +33247,7 @@
         <v>1.24</v>
       </c>
       <c r="AT167">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU167">
         <v>1.56</v>
@@ -33423,7 +33435,7 @@
         <v>1.31</v>
       </c>
       <c r="AS168">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT168">
         <v>1</v>
@@ -33527,7 +33539,7 @@
         <v>152</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>8</v>
@@ -33614,10 +33626,10 @@
         <v>0.92</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT169">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU169">
         <v>1.38</v>
@@ -33718,7 +33730,7 @@
         <v>186</v>
       </c>
       <c r="P170" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -34100,7 +34112,7 @@
         <v>77</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -34187,7 +34199,7 @@
         <v>1.77</v>
       </c>
       <c r="AS172">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT172">
         <v>2</v>
@@ -34291,7 +34303,7 @@
         <v>77</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34482,7 +34494,7 @@
         <v>77</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34763,7 +34775,7 @@
         <v>2.33</v>
       </c>
       <c r="AT175">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU175">
         <v>1.43</v>
@@ -34864,7 +34876,7 @@
         <v>188</v>
       </c>
       <c r="P176" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -34951,10 +34963,10 @@
         <v>1.53</v>
       </c>
       <c r="AS176">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT176">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU176">
         <v>1.48</v>
@@ -35142,10 +35154,10 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT177">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35246,7 +35258,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q178">
         <v>10</v>
@@ -35333,10 +35345,10 @@
         <v>1.47</v>
       </c>
       <c r="AS178">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT178">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU178">
         <v>1.54</v>
@@ -35437,7 +35449,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35524,10 +35536,10 @@
         <v>0.93</v>
       </c>
       <c r="AS179">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT179">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU179">
         <v>1.63</v>
@@ -35715,10 +35727,10 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU180">
         <v>1.45</v>
@@ -35906,10 +35918,10 @@
         <v>0.8</v>
       </c>
       <c r="AS181">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT181">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU181">
         <v>1.39</v>
@@ -36010,7 +36022,7 @@
         <v>193</v>
       </c>
       <c r="P182" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36392,7 +36404,7 @@
         <v>194</v>
       </c>
       <c r="P184" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36774,7 +36786,7 @@
         <v>178</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>1</v>
@@ -37156,7 +37168,7 @@
         <v>77</v>
       </c>
       <c r="P188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37246,7 +37258,7 @@
         <v>1.33</v>
       </c>
       <c r="AT188">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU188">
         <v>1.17</v>
@@ -37434,7 +37446,7 @@
         <v>2</v>
       </c>
       <c r="AS189">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT189">
         <v>1.71</v>
@@ -37625,10 +37637,10 @@
         <v>1.44</v>
       </c>
       <c r="AS190">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT190">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU190">
         <v>1.38</v>
@@ -37729,7 +37741,7 @@
         <v>146</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37816,10 +37828,10 @@
         <v>1.63</v>
       </c>
       <c r="AS191">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT191">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -37920,7 +37932,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -38007,10 +38019,10 @@
         <v>0.75</v>
       </c>
       <c r="AS192">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT192">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU192">
         <v>1.66</v>
@@ -38198,10 +38210,10 @@
         <v>0.75</v>
       </c>
       <c r="AS193">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT193">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38389,7 +38401,7 @@
         <v>0.87</v>
       </c>
       <c r="AS194">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT194">
         <v>0.8100000000000001</v>
@@ -38493,7 +38505,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38684,7 +38696,7 @@
         <v>202</v>
       </c>
       <c r="P196" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -39156,7 +39168,7 @@
         <v>0.71</v>
       </c>
       <c r="AT198">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU198">
         <v>1.39</v>
@@ -39257,7 +39269,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39448,7 +39460,7 @@
         <v>205</v>
       </c>
       <c r="P200" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39535,7 +39547,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS200">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT200">
         <v>0.57</v>
@@ -39726,7 +39738,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS201">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT201">
         <v>0.8100000000000001</v>
@@ -40021,7 +40033,7 @@
         <v>206</v>
       </c>
       <c r="P203" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -40212,7 +40224,7 @@
         <v>77</v>
       </c>
       <c r="P204" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -40302,7 +40314,7 @@
         <v>1.33</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU204">
         <v>1.19</v>
@@ -40493,7 +40505,7 @@
         <v>0.71</v>
       </c>
       <c r="AT205">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU205">
         <v>1.4</v>
@@ -40681,7 +40693,7 @@
         <v>1.06</v>
       </c>
       <c r="AS206">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT206">
         <v>0.95</v>
@@ -40872,10 +40884,10 @@
         <v>1.35</v>
       </c>
       <c r="AS207">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT207">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU207">
         <v>1.47</v>
@@ -40976,7 +40988,7 @@
         <v>77</v>
       </c>
       <c r="P208" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>5</v>
@@ -41066,7 +41078,7 @@
         <v>0.71</v>
       </c>
       <c r="AT208">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU208">
         <v>1.37</v>
@@ -41257,7 +41269,7 @@
         <v>1.33</v>
       </c>
       <c r="AT209">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU209">
         <v>1.16</v>
@@ -41639,7 +41651,7 @@
         <v>1.33</v>
       </c>
       <c r="AT211">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU211">
         <v>1.21</v>
@@ -41827,7 +41839,7 @@
         <v>0.65</v>
       </c>
       <c r="AS212">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT212">
         <v>0.57</v>
@@ -41931,7 +41943,7 @@
         <v>77</v>
       </c>
       <c r="P213" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42018,7 +42030,7 @@
         <v>1.76</v>
       </c>
       <c r="AS213">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT213">
         <v>2</v>
@@ -42209,7 +42221,7 @@
         <v>1.06</v>
       </c>
       <c r="AS214">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT214">
         <v>1</v>
@@ -42403,7 +42415,7 @@
         <v>1.52</v>
       </c>
       <c r="AT215">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42504,7 +42516,7 @@
         <v>77</v>
       </c>
       <c r="P216" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42594,7 +42606,7 @@
         <v>1.24</v>
       </c>
       <c r="AT216">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU216">
         <v>1.4</v>
@@ -42782,7 +42794,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT217">
         <v>0.95</v>
@@ -42886,7 +42898,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -43164,7 +43176,7 @@
         <v>0.72</v>
       </c>
       <c r="AS219">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT219">
         <v>0.8100000000000001</v>
@@ -43268,7 +43280,7 @@
         <v>213</v>
       </c>
       <c r="P220" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -43358,7 +43370,7 @@
         <v>1.33</v>
       </c>
       <c r="AT220">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU220">
         <v>1.2</v>
@@ -43740,7 +43752,7 @@
         <v>0.71</v>
       </c>
       <c r="AT222">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU222">
         <v>1.38</v>
@@ -43841,7 +43853,7 @@
         <v>77</v>
       </c>
       <c r="P223" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -43928,7 +43940,7 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT223">
         <v>2</v>
@@ -44032,7 +44044,7 @@
         <v>215</v>
       </c>
       <c r="P224" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q224">
         <v>8</v>
@@ -44119,10 +44131,10 @@
         <v>0.67</v>
       </c>
       <c r="AS224">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT224">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU224">
         <v>1.54</v>
@@ -44223,7 +44235,7 @@
         <v>216</v>
       </c>
       <c r="P225" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q225">
         <v>1</v>
@@ -44310,10 +44322,10 @@
         <v>1.11</v>
       </c>
       <c r="AS225">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT225">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU225">
         <v>1.42</v>
@@ -44504,7 +44516,7 @@
         <v>1.52</v>
       </c>
       <c r="AT226">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU226">
         <v>1.44</v>
@@ -44605,7 +44617,7 @@
         <v>77</v>
       </c>
       <c r="P227" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44692,7 +44704,7 @@
         <v>1</v>
       </c>
       <c r="AS227">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT227">
         <v>1</v>
@@ -44883,7 +44895,7 @@
         <v>1.78</v>
       </c>
       <c r="AS228">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT228">
         <v>1.71</v>
@@ -44987,7 +44999,7 @@
         <v>218</v>
       </c>
       <c r="P229" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q229">
         <v>2</v>
@@ -45077,7 +45089,7 @@
         <v>1.24</v>
       </c>
       <c r="AT229">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU229">
         <v>1.41</v>
@@ -45369,7 +45381,7 @@
         <v>77</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -45647,7 +45659,7 @@
         <v>0.63</v>
       </c>
       <c r="AS232">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AT232">
         <v>0.57</v>
@@ -45751,7 +45763,7 @@
         <v>220</v>
       </c>
       <c r="P233" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -46032,7 +46044,7 @@
         <v>1.52</v>
       </c>
       <c r="AT234">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AU234">
         <v>1.42</v>
@@ -46411,10 +46423,10 @@
         <v>0.84</v>
       </c>
       <c r="AS236">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT236">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU236">
         <v>1.4</v>
@@ -46515,7 +46527,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46602,10 +46614,10 @@
         <v>0.68</v>
       </c>
       <c r="AS237">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT237">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="AU237">
         <v>1.35</v>
@@ -46706,7 +46718,7 @@
         <v>223</v>
       </c>
       <c r="P238" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q238">
         <v>8</v>
@@ -46793,10 +46805,10 @@
         <v>1.05</v>
       </c>
       <c r="AS238">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AT238">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU238">
         <v>1.46</v>
@@ -46984,7 +46996,7 @@
         <v>1.11</v>
       </c>
       <c r="AS239">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="AT239">
         <v>1</v>
@@ -47088,7 +47100,7 @@
         <v>225</v>
       </c>
       <c r="P240" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47178,7 +47190,7 @@
         <v>1.24</v>
       </c>
       <c r="AT240">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AU240">
         <v>1.4</v>
@@ -47366,10 +47378,10 @@
         <v>1.84</v>
       </c>
       <c r="AS241">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="AT241">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AU241">
         <v>1.54</v>
@@ -47470,7 +47482,7 @@
         <v>226</v>
       </c>
       <c r="P242" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q242">
         <v>5</v>
@@ -47852,7 +47864,7 @@
         <v>137</v>
       </c>
       <c r="P244" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -48043,7 +48055,7 @@
         <v>214</v>
       </c>
       <c r="P245" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -48425,7 +48437,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q247">
         <v>5</v>
@@ -48567,6 +48579,1152 @@
       </c>
       <c r="BK247">
         <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:63">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>2789143</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>64</v>
+      </c>
+      <c r="E248" s="2">
+        <v>44864.70833333334</v>
+      </c>
+      <c r="F248">
+        <v>20</v>
+      </c>
+      <c r="G248" t="s">
+        <v>69</v>
+      </c>
+      <c r="H248" t="s">
+        <v>74</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>212</v>
+      </c>
+      <c r="P248" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q248">
+        <v>3</v>
+      </c>
+      <c r="R248">
+        <v>5</v>
+      </c>
+      <c r="S248">
+        <v>8</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+      <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
+        <v>0</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0</v>
+      </c>
+      <c r="AB248">
+        <v>0</v>
+      </c>
+      <c r="AC248">
+        <v>2.18</v>
+      </c>
+      <c r="AD248">
+        <v>3</v>
+      </c>
+      <c r="AE248">
+        <v>3.1</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>0</v>
+      </c>
+      <c r="AH248">
+        <v>0</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>2.16</v>
+      </c>
+      <c r="AK248">
+        <v>1.62</v>
+      </c>
+      <c r="AL248">
+        <v>0</v>
+      </c>
+      <c r="AM248">
+        <v>0</v>
+      </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
+      <c r="AO248">
+        <v>0</v>
+      </c>
+      <c r="AP248">
+        <v>0</v>
+      </c>
+      <c r="AQ248">
+        <v>1.35</v>
+      </c>
+      <c r="AR248">
+        <v>1.3</v>
+      </c>
+      <c r="AS248">
+        <v>1.43</v>
+      </c>
+      <c r="AT248">
+        <v>1.24</v>
+      </c>
+      <c r="AU248">
+        <v>1.38</v>
+      </c>
+      <c r="AV248">
+        <v>1.34</v>
+      </c>
+      <c r="AW248">
+        <v>2.72</v>
+      </c>
+      <c r="AX248">
+        <v>0</v>
+      </c>
+      <c r="AY248">
+        <v>0</v>
+      </c>
+      <c r="AZ248">
+        <v>0</v>
+      </c>
+      <c r="BA248">
+        <v>0</v>
+      </c>
+      <c r="BB248">
+        <v>0</v>
+      </c>
+      <c r="BC248">
+        <v>0</v>
+      </c>
+      <c r="BD248">
+        <v>0</v>
+      </c>
+      <c r="BE248">
+        <v>0</v>
+      </c>
+      <c r="BF248">
+        <v>3</v>
+      </c>
+      <c r="BG248">
+        <v>3</v>
+      </c>
+      <c r="BH248">
+        <v>4</v>
+      </c>
+      <c r="BI248">
+        <v>6</v>
+      </c>
+      <c r="BJ248">
+        <v>7</v>
+      </c>
+      <c r="BK248">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:63">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>2789146</v>
+      </c>
+      <c r="C249" t="s">
+        <v>63</v>
+      </c>
+      <c r="D249" t="s">
+        <v>64</v>
+      </c>
+      <c r="E249" s="2">
+        <v>44864.8125</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249" t="s">
+        <v>66</v>
+      </c>
+      <c r="H249" t="s">
+        <v>68</v>
+      </c>
+      <c r="I249">
+        <v>2</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>4</v>
+      </c>
+      <c r="O249" t="s">
+        <v>230</v>
+      </c>
+      <c r="P249" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q249">
+        <v>5</v>
+      </c>
+      <c r="R249">
+        <v>3</v>
+      </c>
+      <c r="S249">
+        <v>8</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+      <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
+        <v>0</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>0</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AA249">
+        <v>0</v>
+      </c>
+      <c r="AB249">
+        <v>0</v>
+      </c>
+      <c r="AC249">
+        <v>1.23</v>
+      </c>
+      <c r="AD249">
+        <v>5.5</v>
+      </c>
+      <c r="AE249">
+        <v>8</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>0</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>1.6</v>
+      </c>
+      <c r="AK249">
+        <v>2.19</v>
+      </c>
+      <c r="AL249">
+        <v>0</v>
+      </c>
+      <c r="AM249">
+        <v>0</v>
+      </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
+      <c r="AO249">
+        <v>0</v>
+      </c>
+      <c r="AP249">
+        <v>0</v>
+      </c>
+      <c r="AQ249">
+        <v>2.15</v>
+      </c>
+      <c r="AR249">
+        <v>0.65</v>
+      </c>
+      <c r="AS249">
+        <v>2.19</v>
+      </c>
+      <c r="AT249">
+        <v>0.62</v>
+      </c>
+      <c r="AU249">
+        <v>1.55</v>
+      </c>
+      <c r="AV249">
+        <v>1.13</v>
+      </c>
+      <c r="AW249">
+        <v>2.68</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>0</v>
+      </c>
+      <c r="AZ249">
+        <v>0</v>
+      </c>
+      <c r="BA249">
+        <v>0</v>
+      </c>
+      <c r="BB249">
+        <v>0</v>
+      </c>
+      <c r="BC249">
+        <v>0</v>
+      </c>
+      <c r="BD249">
+        <v>0</v>
+      </c>
+      <c r="BE249">
+        <v>0</v>
+      </c>
+      <c r="BF249">
+        <v>4</v>
+      </c>
+      <c r="BG249">
+        <v>4</v>
+      </c>
+      <c r="BH249">
+        <v>4</v>
+      </c>
+      <c r="BI249">
+        <v>2</v>
+      </c>
+      <c r="BJ249">
+        <v>8</v>
+      </c>
+      <c r="BK249">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:63">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>2789144</v>
+      </c>
+      <c r="C250" t="s">
+        <v>63</v>
+      </c>
+      <c r="D250" t="s">
+        <v>64</v>
+      </c>
+      <c r="E250" s="2">
+        <v>44865.72916666666</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250" t="s">
+        <v>71</v>
+      </c>
+      <c r="H250" t="s">
+        <v>75</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>2</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>3</v>
+      </c>
+      <c r="O250" t="s">
+        <v>231</v>
+      </c>
+      <c r="P250" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q250">
+        <v>2</v>
+      </c>
+      <c r="R250">
+        <v>8</v>
+      </c>
+      <c r="S250">
+        <v>10</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0</v>
+      </c>
+      <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
+        <v>0</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>0</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AA250">
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <v>0</v>
+      </c>
+      <c r="AC250">
+        <v>3.6</v>
+      </c>
+      <c r="AD250">
+        <v>3.1</v>
+      </c>
+      <c r="AE250">
+        <v>1.95</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>0</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>2.06</v>
+      </c>
+      <c r="AK250">
+        <v>1.72</v>
+      </c>
+      <c r="AL250">
+        <v>0</v>
+      </c>
+      <c r="AM250">
+        <v>0</v>
+      </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
+      <c r="AO250">
+        <v>0</v>
+      </c>
+      <c r="AP250">
+        <v>0</v>
+      </c>
+      <c r="AQ250">
+        <v>1.5</v>
+      </c>
+      <c r="AR250">
+        <v>1.9</v>
+      </c>
+      <c r="AS250">
+        <v>1.57</v>
+      </c>
+      <c r="AT250">
+        <v>1.81</v>
+      </c>
+      <c r="AU250">
+        <v>1.34</v>
+      </c>
+      <c r="AV250">
+        <v>1.26</v>
+      </c>
+      <c r="AW250">
+        <v>2.6</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>0</v>
+      </c>
+      <c r="AZ250">
+        <v>0</v>
+      </c>
+      <c r="BA250">
+        <v>0</v>
+      </c>
+      <c r="BB250">
+        <v>0</v>
+      </c>
+      <c r="BC250">
+        <v>0</v>
+      </c>
+      <c r="BD250">
+        <v>0</v>
+      </c>
+      <c r="BE250">
+        <v>0</v>
+      </c>
+      <c r="BF250">
+        <v>3</v>
+      </c>
+      <c r="BG250">
+        <v>2</v>
+      </c>
+      <c r="BH250">
+        <v>4</v>
+      </c>
+      <c r="BI250">
+        <v>7</v>
+      </c>
+      <c r="BJ250">
+        <v>7</v>
+      </c>
+      <c r="BK250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:63">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>2789142</v>
+      </c>
+      <c r="C251" t="s">
+        <v>63</v>
+      </c>
+      <c r="D251" t="s">
+        <v>64</v>
+      </c>
+      <c r="E251" s="2">
+        <v>44865.83333333334</v>
+      </c>
+      <c r="F251">
+        <v>20</v>
+      </c>
+      <c r="G251" t="s">
+        <v>73</v>
+      </c>
+      <c r="H251" t="s">
+        <v>70</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>77</v>
+      </c>
+      <c r="P251" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q251">
+        <v>2</v>
+      </c>
+      <c r="R251">
+        <v>11</v>
+      </c>
+      <c r="S251">
+        <v>13</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+      <c r="AB251">
+        <v>0</v>
+      </c>
+      <c r="AC251">
+        <v>2.37</v>
+      </c>
+      <c r="AD251">
+        <v>3.2</v>
+      </c>
+      <c r="AE251">
+        <v>2.6</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>0</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>2.16</v>
+      </c>
+      <c r="AK251">
+        <v>1.66</v>
+      </c>
+      <c r="AL251">
+        <v>0</v>
+      </c>
+      <c r="AM251">
+        <v>0</v>
+      </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
+      <c r="AO251">
+        <v>0</v>
+      </c>
+      <c r="AP251">
+        <v>0</v>
+      </c>
+      <c r="AQ251">
+        <v>2.55</v>
+      </c>
+      <c r="AR251">
+        <v>2.1</v>
+      </c>
+      <c r="AS251">
+        <v>2.48</v>
+      </c>
+      <c r="AT251">
+        <v>2.05</v>
+      </c>
+      <c r="AU251">
+        <v>1.52</v>
+      </c>
+      <c r="AV251">
+        <v>1.38</v>
+      </c>
+      <c r="AW251">
+        <v>2.9</v>
+      </c>
+      <c r="AX251">
+        <v>0</v>
+      </c>
+      <c r="AY251">
+        <v>0</v>
+      </c>
+      <c r="AZ251">
+        <v>0</v>
+      </c>
+      <c r="BA251">
+        <v>0</v>
+      </c>
+      <c r="BB251">
+        <v>0</v>
+      </c>
+      <c r="BC251">
+        <v>0</v>
+      </c>
+      <c r="BD251">
+        <v>0</v>
+      </c>
+      <c r="BE251">
+        <v>0</v>
+      </c>
+      <c r="BF251">
+        <v>3</v>
+      </c>
+      <c r="BG251">
+        <v>10</v>
+      </c>
+      <c r="BH251">
+        <v>5</v>
+      </c>
+      <c r="BI251">
+        <v>7</v>
+      </c>
+      <c r="BJ251">
+        <v>8</v>
+      </c>
+      <c r="BK251">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:63">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>2789147</v>
+      </c>
+      <c r="C252" t="s">
+        <v>63</v>
+      </c>
+      <c r="D252" t="s">
+        <v>64</v>
+      </c>
+      <c r="E252" s="2">
+        <v>44866.72916666666</v>
+      </c>
+      <c r="F252">
+        <v>20</v>
+      </c>
+      <c r="G252" t="s">
+        <v>76</v>
+      </c>
+      <c r="H252" t="s">
+        <v>67</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>1</v>
+      </c>
+      <c r="O252" t="s">
+        <v>212</v>
+      </c>
+      <c r="P252" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>6</v>
+      </c>
+      <c r="S252">
+        <v>10</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+      <c r="AB252">
+        <v>0</v>
+      </c>
+      <c r="AC252">
+        <v>2.05</v>
+      </c>
+      <c r="AD252">
+        <v>3.1</v>
+      </c>
+      <c r="AE252">
+        <v>3.5</v>
+      </c>
+      <c r="AF252">
+        <v>0</v>
+      </c>
+      <c r="AG252">
+        <v>0</v>
+      </c>
+      <c r="AH252">
+        <v>0</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>2.03</v>
+      </c>
+      <c r="AK252">
+        <v>1.74</v>
+      </c>
+      <c r="AL252">
+        <v>0</v>
+      </c>
+      <c r="AM252">
+        <v>0</v>
+      </c>
+      <c r="AN252">
+        <v>0</v>
+      </c>
+      <c r="AO252">
+        <v>0</v>
+      </c>
+      <c r="AP252">
+        <v>0</v>
+      </c>
+      <c r="AQ252">
+        <v>1.15</v>
+      </c>
+      <c r="AR252">
+        <v>1</v>
+      </c>
+      <c r="AS252">
+        <v>1.24</v>
+      </c>
+      <c r="AT252">
+        <v>0.95</v>
+      </c>
+      <c r="AU252">
+        <v>1.51</v>
+      </c>
+      <c r="AV252">
+        <v>1.06</v>
+      </c>
+      <c r="AW252">
+        <v>2.57</v>
+      </c>
+      <c r="AX252">
+        <v>0</v>
+      </c>
+      <c r="AY252">
+        <v>0</v>
+      </c>
+      <c r="AZ252">
+        <v>0</v>
+      </c>
+      <c r="BA252">
+        <v>0</v>
+      </c>
+      <c r="BB252">
+        <v>0</v>
+      </c>
+      <c r="BC252">
+        <v>0</v>
+      </c>
+      <c r="BD252">
+        <v>0</v>
+      </c>
+      <c r="BE252">
+        <v>0</v>
+      </c>
+      <c r="BF252">
+        <v>3</v>
+      </c>
+      <c r="BG252">
+        <v>2</v>
+      </c>
+      <c r="BH252">
+        <v>7</v>
+      </c>
+      <c r="BI252">
+        <v>6</v>
+      </c>
+      <c r="BJ252">
+        <v>10</v>
+      </c>
+      <c r="BK252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:63">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>2789145</v>
+      </c>
+      <c r="C253" t="s">
+        <v>63</v>
+      </c>
+      <c r="D253" t="s">
+        <v>64</v>
+      </c>
+      <c r="E253" s="2">
+        <v>44866.83333333334</v>
+      </c>
+      <c r="F253">
+        <v>20</v>
+      </c>
+      <c r="G253" t="s">
+        <v>72</v>
+      </c>
+      <c r="H253" t="s">
+        <v>65</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>3</v>
+      </c>
+      <c r="O253" t="s">
+        <v>232</v>
+      </c>
+      <c r="P253" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q253">
+        <v>3</v>
+      </c>
+      <c r="R253">
+        <v>4</v>
+      </c>
+      <c r="S253">
+        <v>7</v>
+      </c>
+      <c r="T253">
+        <v>0</v>
+      </c>
+      <c r="U253">
+        <v>0</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+      <c r="AB253">
+        <v>0</v>
+      </c>
+      <c r="AC253">
+        <v>1.83</v>
+      </c>
+      <c r="AD253">
+        <v>3.2</v>
+      </c>
+      <c r="AE253">
+        <v>4.2</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>0</v>
+      </c>
+      <c r="AH253">
+        <v>0</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>2.04</v>
+      </c>
+      <c r="AK253">
+        <v>1.73</v>
+      </c>
+      <c r="AL253">
+        <v>0</v>
+      </c>
+      <c r="AM253">
+        <v>0</v>
+      </c>
+      <c r="AN253">
+        <v>0</v>
+      </c>
+      <c r="AO253">
+        <v>0</v>
+      </c>
+      <c r="AP253">
+        <v>0</v>
+      </c>
+      <c r="AQ253">
+        <v>1.35</v>
+      </c>
+      <c r="AR253">
+        <v>0.85</v>
+      </c>
+      <c r="AS253">
+        <v>1.43</v>
+      </c>
+      <c r="AT253">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU253">
+        <v>1.43</v>
+      </c>
+      <c r="AV253">
+        <v>1.18</v>
+      </c>
+      <c r="AW253">
+        <v>2.61</v>
+      </c>
+      <c r="AX253">
+        <v>0</v>
+      </c>
+      <c r="AY253">
+        <v>0</v>
+      </c>
+      <c r="AZ253">
+        <v>0</v>
+      </c>
+      <c r="BA253">
+        <v>0</v>
+      </c>
+      <c r="BB253">
+        <v>0</v>
+      </c>
+      <c r="BC253">
+        <v>0</v>
+      </c>
+      <c r="BD253">
+        <v>0</v>
+      </c>
+      <c r="BE253">
+        <v>0</v>
+      </c>
+      <c r="BF253">
+        <v>4</v>
+      </c>
+      <c r="BG253">
+        <v>3</v>
+      </c>
+      <c r="BH253">
+        <v>8</v>
+      </c>
+      <c r="BI253">
+        <v>5</v>
+      </c>
+      <c r="BJ253">
+        <v>12</v>
+      </c>
+      <c r="BK253">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,21 @@
     <t>['69', '73']</t>
   </si>
   <si>
+    <t>['16', '41', '45+2', '68']</t>
+  </si>
+  <si>
+    <t>['29', '33']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['52', '56', '88', '90+5']</t>
+  </si>
+  <si>
     <t>['47', '71']</t>
   </si>
   <si>
@@ -910,9 +925,6 @@
     <t>['41', '90+7']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -1037,6 +1049,24 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['34', '76']</t>
+  </si>
+  <si>
+    <t>['14', '45', '65']</t>
+  </si>
+  <si>
+    <t>['16', '45']</t>
+  </si>
+  <si>
+    <t>['62', '70']</t>
+  </si>
+  <si>
+    <t>['9', '15', '52']</t>
+  </si>
+  <si>
+    <t>['6', '29']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1729,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT2">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1833,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1920,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2111,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT4">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2215,7 +2245,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2302,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT5">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2493,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT6">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2597,7 +2627,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2684,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT7">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2788,7 +2818,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -2875,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT8">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2979,7 +3009,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q9">
         <v>9</v>
@@ -3066,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3170,7 +3200,7 @@
         <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -3257,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU10">
         <v>0.92</v>
@@ -3448,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3552,7 +3582,7 @@
         <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>4</v>
@@ -3639,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT12">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3743,7 +3773,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3830,10 +3860,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT13">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3934,7 +3964,7 @@
         <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4021,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT14">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU14">
         <v>1.31</v>
@@ -4212,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT15">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU15">
         <v>0.73</v>
@@ -4403,10 +4433,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT16">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU16">
         <v>1.99</v>
@@ -4594,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT17">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4785,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT18">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU18">
         <v>1.11</v>
@@ -4889,7 +4919,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4976,10 +5006,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT19">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5167,10 +5197,10 @@
         <v>0.5</v>
       </c>
       <c r="AS20">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU20">
         <v>1.25</v>
@@ -5271,7 +5301,7 @@
         <v>93</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5358,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU21">
         <v>0.82</v>
@@ -5462,7 +5492,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>11</v>
@@ -5549,10 +5579,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT22">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU22">
         <v>1.23</v>
@@ -5653,7 +5683,7 @@
         <v>77</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5740,10 +5770,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU23">
         <v>1.54</v>
@@ -5931,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU24">
         <v>1.03</v>
@@ -6035,7 +6065,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6122,10 +6152,10 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT25">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU25">
         <v>1.52</v>
@@ -6226,7 +6256,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6313,10 +6343,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT26">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU26">
         <v>1.06</v>
@@ -6504,10 +6534,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT27">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6695,10 +6725,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU28">
         <v>1.77</v>
@@ -6886,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT29">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6990,7 +7020,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -7077,10 +7107,10 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT30">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU30">
         <v>1.28</v>
@@ -7181,7 +7211,7 @@
         <v>77</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7268,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU31">
         <v>1.36</v>
@@ -7372,7 +7402,7 @@
         <v>101</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7459,10 +7489,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU32">
         <v>1.11</v>
@@ -7650,10 +7680,10 @@
         <v>0.33</v>
       </c>
       <c r="AS33">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU33">
         <v>1.61</v>
@@ -7841,10 +7871,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU34">
         <v>1.31</v>
@@ -8032,10 +8062,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU35">
         <v>1.65</v>
@@ -8136,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>8</v>
@@ -8223,10 +8253,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU36">
         <v>1</v>
@@ -8327,7 +8357,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8414,10 +8444,10 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT37">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8518,7 +8548,7 @@
         <v>77</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8605,10 +8635,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT38">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU38">
         <v>1</v>
@@ -8796,10 +8826,10 @@
         <v>1.33</v>
       </c>
       <c r="AS39">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU39">
         <v>1.36</v>
@@ -8900,7 +8930,7 @@
         <v>77</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8987,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT40">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU40">
         <v>1.24</v>
@@ -9091,7 +9121,7 @@
         <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9178,10 +9208,10 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU41">
         <v>1.06</v>
@@ -9282,7 +9312,7 @@
         <v>77</v>
       </c>
       <c r="P42" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9369,10 +9399,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT42">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU42">
         <v>1.48</v>
@@ -9560,10 +9590,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU43">
         <v>1.51</v>
@@ -9751,10 +9781,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT44">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU44">
         <v>1.49</v>
@@ -9942,10 +9972,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT45">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU45">
         <v>0.98</v>
@@ -10046,7 +10076,7 @@
         <v>106</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -10133,10 +10163,10 @@
         <v>2.5</v>
       </c>
       <c r="AS46">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU46">
         <v>1.53</v>
@@ -10237,7 +10267,7 @@
         <v>107</v>
       </c>
       <c r="P47" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10324,10 +10354,10 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU47">
         <v>1.24</v>
@@ -10515,10 +10545,10 @@
         <v>0.75</v>
       </c>
       <c r="AS48">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT48">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU48">
         <v>1.08</v>
@@ -10619,7 +10649,7 @@
         <v>109</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10706,10 +10736,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT49">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU49">
         <v>1.5</v>
@@ -10810,7 +10840,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>10</v>
@@ -10897,10 +10927,10 @@
         <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT50">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU50">
         <v>1.34</v>
@@ -11001,7 +11031,7 @@
         <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11088,10 +11118,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT51">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU51">
         <v>1.48</v>
@@ -11279,10 +11309,10 @@
         <v>3</v>
       </c>
       <c r="AS52">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT52">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU52">
         <v>1.41</v>
@@ -11383,7 +11413,7 @@
         <v>77</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>10</v>
@@ -11470,10 +11500,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>1.45</v>
@@ -11574,7 +11604,7 @@
         <v>112</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>5</v>
@@ -11661,10 +11691,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT54">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU54">
         <v>1.35</v>
@@ -11852,10 +11882,10 @@
         <v>1.33</v>
       </c>
       <c r="AS55">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU55">
         <v>1.06</v>
@@ -12043,10 +12073,10 @@
         <v>2.25</v>
       </c>
       <c r="AS56">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU56">
         <v>1.67</v>
@@ -12147,7 +12177,7 @@
         <v>77</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12234,10 +12264,10 @@
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT57">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU57">
         <v>1.58</v>
@@ -12425,10 +12455,10 @@
         <v>0.6</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT58">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU58">
         <v>1.46</v>
@@ -12616,10 +12646,10 @@
         <v>2.6</v>
       </c>
       <c r="AS59">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT59">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU59">
         <v>1.47</v>
@@ -12807,10 +12837,10 @@
         <v>0.8</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU60">
         <v>0.9</v>
@@ -12998,10 +13028,10 @@
         <v>1.2</v>
       </c>
       <c r="AS61">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT61">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU61">
         <v>1.33</v>
@@ -13189,10 +13219,10 @@
         <v>1.4</v>
       </c>
       <c r="AS62">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT62">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU62">
         <v>1.5</v>
@@ -13380,10 +13410,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT63">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13571,10 +13601,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT64">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU64">
         <v>1.37</v>
@@ -13675,7 +13705,7 @@
         <v>119</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13762,10 +13792,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT65">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU65">
         <v>1.35</v>
@@ -13953,10 +13983,10 @@
         <v>2.5</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT66">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU66">
         <v>1.25</v>
@@ -14057,7 +14087,7 @@
         <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14144,10 +14174,10 @@
         <v>1.5</v>
       </c>
       <c r="AS67">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU67">
         <v>1.46</v>
@@ -14335,10 +14365,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU68">
         <v>1.33</v>
@@ -14439,7 +14469,7 @@
         <v>123</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14526,10 +14556,10 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT69">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU69">
         <v>1.48</v>
@@ -14630,7 +14660,7 @@
         <v>77</v>
       </c>
       <c r="P70" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>16</v>
@@ -14717,10 +14747,10 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU70">
         <v>1.5</v>
@@ -14821,7 +14851,7 @@
         <v>124</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14908,10 +14938,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT71">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU71">
         <v>1.54</v>
@@ -15099,10 +15129,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT72">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU72">
         <v>1.22</v>
@@ -15203,7 +15233,7 @@
         <v>77</v>
       </c>
       <c r="P73" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15290,10 +15320,10 @@
         <v>1.2</v>
       </c>
       <c r="AS73">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT73">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU73">
         <v>1.24</v>
@@ -15481,10 +15511,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT74">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU74">
         <v>0.98</v>
@@ -15672,10 +15702,10 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT75">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU75">
         <v>1.59</v>
@@ -15863,10 +15893,10 @@
         <v>2.17</v>
       </c>
       <c r="AS76">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU76">
         <v>1.45</v>
@@ -16054,10 +16084,10 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT77">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU77">
         <v>1.42</v>
@@ -16158,7 +16188,7 @@
         <v>129</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16245,10 +16275,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT78">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16436,10 +16466,10 @@
         <v>1.17</v>
       </c>
       <c r="AS79">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT79">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.64</v>
@@ -16540,7 +16570,7 @@
         <v>131</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -16627,10 +16657,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT80">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16731,7 +16761,7 @@
         <v>132</v>
       </c>
       <c r="P81" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -16818,10 +16848,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT81">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU81">
         <v>1.68</v>
@@ -17009,10 +17039,10 @@
         <v>0.67</v>
       </c>
       <c r="AS82">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU82">
         <v>1.37</v>
@@ -17200,10 +17230,10 @@
         <v>2.17</v>
       </c>
       <c r="AS83">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -17391,10 +17421,10 @@
         <v>1.5</v>
       </c>
       <c r="AS84">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT84">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU84">
         <v>1.45</v>
@@ -17495,7 +17525,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -17582,10 +17612,10 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT85">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17686,7 +17716,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -17773,10 +17803,10 @@
         <v>1.43</v>
       </c>
       <c r="AS86">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT86">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17877,7 +17907,7 @@
         <v>77</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -17964,10 +17994,10 @@
         <v>0.43</v>
       </c>
       <c r="AS87">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT87">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU87">
         <v>1.56</v>
@@ -18155,10 +18185,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT88">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU88">
         <v>1.39</v>
@@ -18346,10 +18376,10 @@
         <v>1.29</v>
       </c>
       <c r="AS89">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT89">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU89">
         <v>1.83</v>
@@ -18537,10 +18567,10 @@
         <v>1</v>
       </c>
       <c r="AS90">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT90">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU90">
         <v>1.36</v>
@@ -18641,7 +18671,7 @@
         <v>136</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18728,10 +18758,10 @@
         <v>1.14</v>
       </c>
       <c r="AS91">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT91">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU91">
         <v>0.99</v>
@@ -18832,7 +18862,7 @@
         <v>137</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>5</v>
@@ -18919,10 +18949,10 @@
         <v>0.71</v>
       </c>
       <c r="AS92">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU92">
         <v>1.43</v>
@@ -19110,10 +19140,10 @@
         <v>1.43</v>
       </c>
       <c r="AS93">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU93">
         <v>1.48</v>
@@ -19301,10 +19331,10 @@
         <v>2.29</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT94">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU94">
         <v>1.27</v>
@@ -19405,7 +19435,7 @@
         <v>139</v>
       </c>
       <c r="P95" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>10</v>
@@ -19492,10 +19522,10 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT95">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU95">
         <v>1.6</v>
@@ -19596,7 +19626,7 @@
         <v>140</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19683,10 +19713,10 @@
         <v>1.86</v>
       </c>
       <c r="AS96">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT96">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU96">
         <v>1.33</v>
@@ -19874,10 +19904,10 @@
         <v>0.71</v>
       </c>
       <c r="AS97">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT97">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20065,10 +20095,10 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT98">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -20256,10 +20286,10 @@
         <v>1.13</v>
       </c>
       <c r="AS99">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT99">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU99">
         <v>0.98</v>
@@ -20360,7 +20390,7 @@
         <v>77</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20447,10 +20477,10 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT100">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU100">
         <v>1.56</v>
@@ -20551,7 +20581,7 @@
         <v>77</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20638,10 +20668,10 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT101">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU101">
         <v>1.69</v>
@@ -20829,10 +20859,10 @@
         <v>1.63</v>
       </c>
       <c r="AS102">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU102">
         <v>1.48</v>
@@ -20933,7 +20963,7 @@
         <v>77</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -21020,10 +21050,10 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT103">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU103">
         <v>1.57</v>
@@ -21124,7 +21154,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21211,10 +21241,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -21402,10 +21432,10 @@
         <v>0.63</v>
       </c>
       <c r="AS105">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU105">
         <v>1.27</v>
@@ -21593,10 +21623,10 @@
         <v>0.75</v>
       </c>
       <c r="AS106">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT106">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU106">
         <v>1.49</v>
@@ -21784,10 +21814,10 @@
         <v>2.38</v>
       </c>
       <c r="AS107">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT107">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU107">
         <v>1.4</v>
@@ -21888,7 +21918,7 @@
         <v>146</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21975,10 +22005,10 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU108">
         <v>1.61</v>
@@ -22166,10 +22196,10 @@
         <v>1.38</v>
       </c>
       <c r="AS109">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT109">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU109">
         <v>1.41</v>
@@ -22357,10 +22387,10 @@
         <v>1.11</v>
       </c>
       <c r="AS110">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT110">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU110">
         <v>1.6</v>
@@ -22548,10 +22578,10 @@
         <v>1.22</v>
       </c>
       <c r="AS111">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT111">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU111">
         <v>1.5</v>
@@ -22739,10 +22769,10 @@
         <v>2.11</v>
       </c>
       <c r="AS112">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT112">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU112">
         <v>1.57</v>
@@ -22843,7 +22873,7 @@
         <v>149</v>
       </c>
       <c r="P113" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22930,10 +22960,10 @@
         <v>1.44</v>
       </c>
       <c r="AS113">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU113">
         <v>1.54</v>
@@ -23034,7 +23064,7 @@
         <v>150</v>
       </c>
       <c r="P114" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>7</v>
@@ -23121,10 +23151,10 @@
         <v>1.22</v>
       </c>
       <c r="AS114">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT114">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU114">
         <v>1.67</v>
@@ -23225,7 +23255,7 @@
         <v>77</v>
       </c>
       <c r="P115" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23312,10 +23342,10 @@
         <v>1.56</v>
       </c>
       <c r="AS115">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU115">
         <v>1.38</v>
@@ -23416,7 +23446,7 @@
         <v>77</v>
       </c>
       <c r="P116" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q116">
         <v>2</v>
@@ -23503,10 +23533,10 @@
         <v>2.22</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT116">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU116">
         <v>1.26</v>
@@ -23607,7 +23637,7 @@
         <v>151</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23694,10 +23724,10 @@
         <v>1.22</v>
       </c>
       <c r="AS117">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT117">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU117">
         <v>1.39</v>
@@ -23885,10 +23915,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT118">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU118">
         <v>1.02</v>
@@ -23989,7 +24019,7 @@
         <v>152</v>
       </c>
       <c r="P119" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>7</v>
@@ -24076,10 +24106,10 @@
         <v>2.11</v>
       </c>
       <c r="AS119">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU119">
         <v>1.46</v>
@@ -24180,7 +24210,7 @@
         <v>153</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>10</v>
@@ -24267,10 +24297,10 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT120">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU120">
         <v>1.37</v>
@@ -24458,10 +24488,10 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU121">
         <v>1.5</v>
@@ -24649,10 +24679,10 @@
         <v>1.1</v>
       </c>
       <c r="AS122">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT122">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU122">
         <v>1.55</v>
@@ -24840,10 +24870,10 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT123">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU123">
         <v>1.5</v>
@@ -24944,7 +24974,7 @@
         <v>156</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -25031,10 +25061,10 @@
         <v>0.9</v>
       </c>
       <c r="AS124">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT124">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU124">
         <v>1.72</v>
@@ -25222,10 +25252,10 @@
         <v>1.7</v>
       </c>
       <c r="AS125">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT125">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU125">
         <v>1.51</v>
@@ -25326,7 +25356,7 @@
         <v>157</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25413,10 +25443,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -25517,7 +25547,7 @@
         <v>158</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25604,10 +25634,10 @@
         <v>1.1</v>
       </c>
       <c r="AS127">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU127">
         <v>1.36</v>
@@ -25708,7 +25738,7 @@
         <v>117</v>
       </c>
       <c r="P128" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25795,10 +25825,10 @@
         <v>1.4</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT128">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25986,10 +26016,10 @@
         <v>0.7</v>
       </c>
       <c r="AS129">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT129">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU129">
         <v>1.24</v>
@@ -26177,10 +26207,10 @@
         <v>0.7</v>
       </c>
       <c r="AS130">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT130">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU130">
         <v>1.45</v>
@@ -26281,7 +26311,7 @@
         <v>77</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26368,10 +26398,10 @@
         <v>2.3</v>
       </c>
       <c r="AS131">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT131">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU131">
         <v>1.08</v>
@@ -26472,7 +26502,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26559,10 +26589,10 @@
         <v>1.1</v>
       </c>
       <c r="AS132">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT132">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU132">
         <v>1.54</v>
@@ -26663,7 +26693,7 @@
         <v>77</v>
       </c>
       <c r="P133" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26750,10 +26780,10 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT133">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU133">
         <v>1.45</v>
@@ -26854,7 +26884,7 @@
         <v>160</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26941,10 +26971,10 @@
         <v>1.09</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT134">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU134">
         <v>1.13</v>
@@ -27132,10 +27162,10 @@
         <v>1.09</v>
       </c>
       <c r="AS135">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT135">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU135">
         <v>1.37</v>
@@ -27323,10 +27353,10 @@
         <v>2.36</v>
       </c>
       <c r="AS136">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT136">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU136">
         <v>1.58</v>
@@ -27514,10 +27544,10 @@
         <v>1.82</v>
       </c>
       <c r="AS137">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT137">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -27618,7 +27648,7 @@
         <v>110</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27705,10 +27735,10 @@
         <v>1.36</v>
       </c>
       <c r="AS138">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT138">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU138">
         <v>1.51</v>
@@ -27809,7 +27839,7 @@
         <v>163</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>2</v>
@@ -27896,10 +27926,10 @@
         <v>0.82</v>
       </c>
       <c r="AS139">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT139">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU139">
         <v>1.38</v>
@@ -28087,10 +28117,10 @@
         <v>0.91</v>
       </c>
       <c r="AS140">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT140">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU140">
         <v>1.52</v>
@@ -28191,7 +28221,7 @@
         <v>165</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28278,10 +28308,10 @@
         <v>2.09</v>
       </c>
       <c r="AS141">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT141">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU141">
         <v>1.47</v>
@@ -28469,10 +28499,10 @@
         <v>0.75</v>
       </c>
       <c r="AS142">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT142">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU142">
         <v>1.21</v>
@@ -28573,7 +28603,7 @@
         <v>77</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28660,10 +28690,10 @@
         <v>2</v>
       </c>
       <c r="AS143">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT143">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU143">
         <v>1.41</v>
@@ -28764,7 +28794,7 @@
         <v>167</v>
       </c>
       <c r="P144" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28851,10 +28881,10 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT144">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU144">
         <v>1.52</v>
@@ -29042,10 +29072,10 @@
         <v>1.27</v>
       </c>
       <c r="AS145">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT145">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU145">
         <v>1.45</v>
@@ -29233,10 +29263,10 @@
         <v>0.64</v>
       </c>
       <c r="AS146">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT146">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU146">
         <v>1.53</v>
@@ -29424,10 +29454,10 @@
         <v>1.08</v>
       </c>
       <c r="AS147">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT147">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU147">
         <v>1.68</v>
@@ -29528,7 +29558,7 @@
         <v>171</v>
       </c>
       <c r="P148" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29615,10 +29645,10 @@
         <v>2.17</v>
       </c>
       <c r="AS148">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT148">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU148">
         <v>1.54</v>
@@ -29806,10 +29836,10 @@
         <v>1</v>
       </c>
       <c r="AS149">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT149">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU149">
         <v>1.38</v>
@@ -29910,7 +29940,7 @@
         <v>173</v>
       </c>
       <c r="P150" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29997,10 +30027,10 @@
         <v>1.5</v>
       </c>
       <c r="AS150">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT150">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU150">
         <v>1.48</v>
@@ -30188,10 +30218,10 @@
         <v>1.67</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT151">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU151">
         <v>1.12</v>
@@ -30292,7 +30322,7 @@
         <v>174</v>
       </c>
       <c r="P152" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q152">
         <v>3</v>
@@ -30379,10 +30409,10 @@
         <v>1.17</v>
       </c>
       <c r="AS152">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU152">
         <v>1.49</v>
@@ -30570,10 +30600,10 @@
         <v>0.92</v>
       </c>
       <c r="AS153">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT153">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU153">
         <v>1.55</v>
@@ -30674,7 +30704,7 @@
         <v>77</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>1</v>
@@ -30761,10 +30791,10 @@
         <v>2.08</v>
       </c>
       <c r="AS154">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT154">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU154">
         <v>1.49</v>
@@ -30865,7 +30895,7 @@
         <v>176</v>
       </c>
       <c r="P155" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30952,10 +30982,10 @@
         <v>1.92</v>
       </c>
       <c r="AS155">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU155">
         <v>1.4</v>
@@ -31143,10 +31173,10 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT156">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU156">
         <v>1.44</v>
@@ -31334,10 +31364,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS157">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT157">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU157">
         <v>1.47</v>
@@ -31438,7 +31468,7 @@
         <v>153</v>
       </c>
       <c r="P158" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -31525,10 +31555,10 @@
         <v>1</v>
       </c>
       <c r="AS158">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT158">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU158">
         <v>1.14</v>
@@ -31629,7 +31659,7 @@
         <v>77</v>
       </c>
       <c r="P159" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>6</v>
@@ -31716,10 +31746,10 @@
         <v>0.58</v>
       </c>
       <c r="AS159">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT159">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU159">
         <v>1.53</v>
@@ -31820,7 +31850,7 @@
         <v>178</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31907,10 +31937,10 @@
         <v>2</v>
       </c>
       <c r="AS160">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT160">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU160">
         <v>1.46</v>
@@ -32098,10 +32128,10 @@
         <v>1.62</v>
       </c>
       <c r="AS161">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT161">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU161">
         <v>1.44</v>
@@ -32289,10 +32319,10 @@
         <v>1.62</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT162">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU162">
         <v>1.21</v>
@@ -32480,10 +32510,10 @@
         <v>0.83</v>
       </c>
       <c r="AS163">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT163">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU163">
         <v>1.71</v>
@@ -32584,7 +32614,7 @@
         <v>181</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32671,10 +32701,10 @@
         <v>0.86</v>
       </c>
       <c r="AS164">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT164">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU164">
         <v>1.5</v>
@@ -32775,7 +32805,7 @@
         <v>182</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>7</v>
@@ -32862,10 +32892,10 @@
         <v>0.86</v>
       </c>
       <c r="AS165">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT165">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU165">
         <v>1.45</v>
@@ -33053,10 +33083,10 @@
         <v>2.15</v>
       </c>
       <c r="AS166">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT166">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU166">
         <v>1.66</v>
@@ -33244,10 +33274,10 @@
         <v>1.57</v>
       </c>
       <c r="AS167">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT167">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU167">
         <v>1.56</v>
@@ -33435,10 +33465,10 @@
         <v>1.31</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT168">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU168">
         <v>1.45</v>
@@ -33539,7 +33569,7 @@
         <v>152</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="Q169">
         <v>8</v>
@@ -33626,10 +33656,10 @@
         <v>0.92</v>
       </c>
       <c r="AS169">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT169">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU169">
         <v>1.38</v>
@@ -33730,7 +33760,7 @@
         <v>186</v>
       </c>
       <c r="P170" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>1</v>
@@ -33817,10 +33847,10 @@
         <v>0.77</v>
       </c>
       <c r="AS170">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT170">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU170">
         <v>1.14</v>
@@ -34008,10 +34038,10 @@
         <v>1.14</v>
       </c>
       <c r="AS171">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT171">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU171">
         <v>1.17</v>
@@ -34112,7 +34142,7 @@
         <v>77</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>2</v>
@@ -34199,10 +34229,10 @@
         <v>1.77</v>
       </c>
       <c r="AS172">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT172">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU172">
         <v>1.53</v>
@@ -34303,7 +34333,7 @@
         <v>77</v>
       </c>
       <c r="P173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -34390,10 +34420,10 @@
         <v>0.77</v>
       </c>
       <c r="AS173">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT173">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU173">
         <v>1.41</v>
@@ -34494,7 +34524,7 @@
         <v>77</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34581,10 +34611,10 @@
         <v>2.07</v>
       </c>
       <c r="AS174">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT174">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU174">
         <v>1.51</v>
@@ -34772,10 +34802,10 @@
         <v>1.5</v>
       </c>
       <c r="AS175">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT175">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU175">
         <v>1.43</v>
@@ -34876,7 +34906,7 @@
         <v>188</v>
       </c>
       <c r="P176" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>5</v>
@@ -34963,10 +34993,10 @@
         <v>1.53</v>
       </c>
       <c r="AS176">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT176">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU176">
         <v>1.48</v>
@@ -35154,10 +35184,10 @@
         <v>2</v>
       </c>
       <c r="AS177">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT177">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU177">
         <v>1.48</v>
@@ -35258,7 +35288,7 @@
         <v>190</v>
       </c>
       <c r="P178" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q178">
         <v>10</v>
@@ -35345,10 +35375,10 @@
         <v>1.47</v>
       </c>
       <c r="AS178">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT178">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU178">
         <v>1.54</v>
@@ -35449,7 +35479,7 @@
         <v>191</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35536,10 +35566,10 @@
         <v>0.93</v>
       </c>
       <c r="AS179">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT179">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU179">
         <v>1.63</v>
@@ -35727,10 +35757,10 @@
         <v>0.8</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT180">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU180">
         <v>1.45</v>
@@ -35918,10 +35948,10 @@
         <v>0.8</v>
       </c>
       <c r="AS181">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT181">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU181">
         <v>1.39</v>
@@ -36022,7 +36052,7 @@
         <v>193</v>
       </c>
       <c r="P182" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -36109,10 +36139,10 @@
         <v>1.07</v>
       </c>
       <c r="AS182">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT182">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU182">
         <v>1.52</v>
@@ -36300,10 +36330,10 @@
         <v>1.21</v>
       </c>
       <c r="AS183">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT183">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU183">
         <v>1.11</v>
@@ -36404,7 +36434,7 @@
         <v>194</v>
       </c>
       <c r="P184" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q184">
         <v>2</v>
@@ -36491,10 +36521,10 @@
         <v>0.71</v>
       </c>
       <c r="AS184">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT184">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU184">
         <v>1.2</v>
@@ -36682,10 +36712,10 @@
         <v>0.93</v>
       </c>
       <c r="AS185">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT185">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU185">
         <v>1.47</v>
@@ -36786,7 +36816,7 @@
         <v>178</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>1</v>
@@ -36873,10 +36903,10 @@
         <v>1.86</v>
       </c>
       <c r="AS186">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT186">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU186">
         <v>1.43</v>
@@ -37064,10 +37094,10 @@
         <v>2.13</v>
       </c>
       <c r="AS187">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT187">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU187">
         <v>1.42</v>
@@ -37168,7 +37198,7 @@
         <v>77</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q188">
         <v>4</v>
@@ -37255,10 +37285,10 @@
         <v>1.93</v>
       </c>
       <c r="AS188">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT188">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU188">
         <v>1.17</v>
@@ -37446,10 +37476,10 @@
         <v>2</v>
       </c>
       <c r="AS189">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT189">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU189">
         <v>1.46</v>
@@ -37637,10 +37667,10 @@
         <v>1.44</v>
       </c>
       <c r="AS190">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT190">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU190">
         <v>1.38</v>
@@ -37741,7 +37771,7 @@
         <v>146</v>
       </c>
       <c r="P191" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -37828,10 +37858,10 @@
         <v>1.63</v>
       </c>
       <c r="AS191">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT191">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU191">
         <v>1.46</v>
@@ -37932,7 +37962,7 @@
         <v>198</v>
       </c>
       <c r="P192" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q192">
         <v>3</v>
@@ -38019,10 +38049,10 @@
         <v>0.75</v>
       </c>
       <c r="AS192">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT192">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU192">
         <v>1.66</v>
@@ -38210,10 +38240,10 @@
         <v>0.75</v>
       </c>
       <c r="AS193">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT193">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38401,10 +38431,10 @@
         <v>0.87</v>
       </c>
       <c r="AS194">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT194">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU194">
         <v>1.54</v>
@@ -38505,7 +38535,7 @@
         <v>201</v>
       </c>
       <c r="P195" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -38592,10 +38622,10 @@
         <v>1.06</v>
       </c>
       <c r="AS195">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT195">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU195">
         <v>1.41</v>
@@ -38696,7 +38726,7 @@
         <v>202</v>
       </c>
       <c r="P196" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q196">
         <v>4</v>
@@ -38783,10 +38813,10 @@
         <v>0.73</v>
       </c>
       <c r="AS196">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT196">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU196">
         <v>1.46</v>
@@ -38974,10 +39004,10 @@
         <v>1.93</v>
       </c>
       <c r="AS197">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT197">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU197">
         <v>1.51</v>
@@ -39165,10 +39195,10 @@
         <v>0.93</v>
       </c>
       <c r="AS198">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT198">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU198">
         <v>1.39</v>
@@ -39269,7 +39299,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q199">
         <v>1</v>
@@ -39356,10 +39386,10 @@
         <v>1.2</v>
       </c>
       <c r="AS199">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT199">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU199">
         <v>1.2</v>
@@ -39460,7 +39490,7 @@
         <v>205</v>
       </c>
       <c r="P200" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q200">
         <v>4</v>
@@ -39547,10 +39577,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS200">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT200">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU200">
         <v>1.53</v>
@@ -39738,10 +39768,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS201">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT201">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU201">
         <v>1.42</v>
@@ -39929,10 +39959,10 @@
         <v>1.13</v>
       </c>
       <c r="AS202">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT202">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU202">
         <v>1.49</v>
@@ -40033,7 +40063,7 @@
         <v>206</v>
       </c>
       <c r="P203" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q203">
         <v>6</v>
@@ -40120,10 +40150,10 @@
         <v>1.88</v>
       </c>
       <c r="AS203">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT203">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU203">
         <v>1.43</v>
@@ -40224,7 +40254,7 @@
         <v>77</v>
       </c>
       <c r="P204" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q204">
         <v>6</v>
@@ -40311,10 +40341,10 @@
         <v>0.88</v>
       </c>
       <c r="AS204">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT204">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU204">
         <v>1.19</v>
@@ -40502,10 +40532,10 @@
         <v>2</v>
       </c>
       <c r="AS205">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT205">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU205">
         <v>1.4</v>
@@ -40693,10 +40723,10 @@
         <v>1.06</v>
       </c>
       <c r="AS206">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT206">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU206">
         <v>1.43</v>
@@ -40884,10 +40914,10 @@
         <v>1.35</v>
       </c>
       <c r="AS207">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT207">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU207">
         <v>1.47</v>
@@ -40988,7 +41018,7 @@
         <v>77</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>5</v>
@@ -41075,10 +41105,10 @@
         <v>0.76</v>
       </c>
       <c r="AS208">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT208">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU208">
         <v>1.37</v>
@@ -41266,10 +41296,10 @@
         <v>1.71</v>
       </c>
       <c r="AS209">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT209">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU209">
         <v>1.16</v>
@@ -41457,10 +41487,10 @@
         <v>0.76</v>
       </c>
       <c r="AS210">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT210">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU210">
         <v>1.4</v>
@@ -41648,10 +41678,10 @@
         <v>2.06</v>
       </c>
       <c r="AS211">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT211">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU211">
         <v>1.21</v>
@@ -41839,10 +41869,10 @@
         <v>0.65</v>
       </c>
       <c r="AS212">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT212">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU212">
         <v>1.36</v>
@@ -41943,7 +41973,7 @@
         <v>77</v>
       </c>
       <c r="P213" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q213">
         <v>5</v>
@@ -42030,10 +42060,10 @@
         <v>1.76</v>
       </c>
       <c r="AS213">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT213">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU213">
         <v>1.43</v>
@@ -42221,10 +42251,10 @@
         <v>1.06</v>
       </c>
       <c r="AS214">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT214">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU214">
         <v>1.52</v>
@@ -42412,10 +42442,10 @@
         <v>0.71</v>
       </c>
       <c r="AS215">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT215">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU215">
         <v>1.46</v>
@@ -42516,7 +42546,7 @@
         <v>77</v>
       </c>
       <c r="P216" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42603,10 +42633,10 @@
         <v>1</v>
       </c>
       <c r="AS216">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT216">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU216">
         <v>1.4</v>
@@ -42794,10 +42824,10 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT217">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU217">
         <v>1.45</v>
@@ -42898,7 +42928,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q218">
         <v>4</v>
@@ -42985,10 +43015,10 @@
         <v>0.67</v>
       </c>
       <c r="AS218">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT218">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU218">
         <v>1.39</v>
@@ -43176,10 +43206,10 @@
         <v>0.72</v>
       </c>
       <c r="AS219">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT219">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU219">
         <v>1.61</v>
@@ -43280,7 +43310,7 @@
         <v>213</v>
       </c>
       <c r="P220" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -43367,10 +43397,10 @@
         <v>1.78</v>
       </c>
       <c r="AS220">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT220">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU220">
         <v>1.2</v>
@@ -43558,10 +43588,10 @@
         <v>1.88</v>
       </c>
       <c r="AS221">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT221">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU221">
         <v>1.14</v>
@@ -43749,10 +43779,10 @@
         <v>1.28</v>
       </c>
       <c r="AS222">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT222">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU222">
         <v>1.38</v>
@@ -43853,7 +43883,7 @@
         <v>77</v>
       </c>
       <c r="P223" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q223">
         <v>8</v>
@@ -43940,10 +43970,10 @@
         <v>1.83</v>
       </c>
       <c r="AS223">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT223">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU223">
         <v>1.43</v>
@@ -44044,7 +44074,7 @@
         <v>215</v>
       </c>
       <c r="P224" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q224">
         <v>8</v>
@@ -44131,10 +44161,10 @@
         <v>0.67</v>
       </c>
       <c r="AS224">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT224">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU224">
         <v>1.54</v>
@@ -44235,7 +44265,7 @@
         <v>216</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q225">
         <v>1</v>
@@ -44322,10 +44352,10 @@
         <v>1.11</v>
       </c>
       <c r="AS225">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT225">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU225">
         <v>1.42</v>
@@ -44513,10 +44543,10 @@
         <v>2.11</v>
       </c>
       <c r="AS226">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT226">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU226">
         <v>1.44</v>
@@ -44617,7 +44647,7 @@
         <v>77</v>
       </c>
       <c r="P227" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -44704,10 +44734,10 @@
         <v>1</v>
       </c>
       <c r="AS227">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT227">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU227">
         <v>1.35</v>
@@ -44895,10 +44925,10 @@
         <v>1.78</v>
       </c>
       <c r="AS228">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT228">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU228">
         <v>1.59</v>
@@ -44999,7 +45029,7 @@
         <v>218</v>
       </c>
       <c r="P229" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q229">
         <v>2</v>
@@ -45086,10 +45116,10 @@
         <v>0.89</v>
       </c>
       <c r="AS229">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT229">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU229">
         <v>1.41</v>
@@ -45277,10 +45307,10 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT230">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU230">
         <v>1.39</v>
@@ -45381,7 +45411,7 @@
         <v>77</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>1</v>
@@ -45468,10 +45498,10 @@
         <v>0.68</v>
       </c>
       <c r="AS231">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT231">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU231">
         <v>1.17</v>
@@ -45659,10 +45689,10 @@
         <v>0.63</v>
       </c>
       <c r="AS232">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT232">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU232">
         <v>1.49</v>
@@ -45763,7 +45793,7 @@
         <v>220</v>
       </c>
       <c r="P233" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -45850,10 +45880,10 @@
         <v>1.89</v>
       </c>
       <c r="AS233">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT233">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU233">
         <v>1.38</v>
@@ -46041,10 +46071,10 @@
         <v>1.37</v>
       </c>
       <c r="AS234">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT234">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU234">
         <v>1.42</v>
@@ -46232,10 +46262,10 @@
         <v>1.68</v>
       </c>
       <c r="AS235">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT235">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU235">
         <v>1.18</v>
@@ -46423,10 +46453,10 @@
         <v>0.84</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT236">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU236">
         <v>1.4</v>
@@ -46527,7 +46557,7 @@
         <v>222</v>
       </c>
       <c r="P237" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q237">
         <v>3</v>
@@ -46614,10 +46644,10 @@
         <v>0.68</v>
       </c>
       <c r="AS237">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT237">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU237">
         <v>1.35</v>
@@ -46718,7 +46748,7 @@
         <v>223</v>
       </c>
       <c r="P238" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q238">
         <v>8</v>
@@ -46805,10 +46835,10 @@
         <v>1.05</v>
       </c>
       <c r="AS238">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT238">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU238">
         <v>1.46</v>
@@ -46996,10 +47026,10 @@
         <v>1.11</v>
       </c>
       <c r="AS239">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU239">
         <v>1.57</v>
@@ -47100,7 +47130,7 @@
         <v>225</v>
       </c>
       <c r="P240" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q240">
         <v>5</v>
@@ -47187,10 +47217,10 @@
         <v>2.05</v>
       </c>
       <c r="AS240">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT240">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU240">
         <v>1.4</v>
@@ -47378,10 +47408,10 @@
         <v>1.84</v>
       </c>
       <c r="AS241">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT241">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU241">
         <v>1.54</v>
@@ -47482,7 +47512,7 @@
         <v>226</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q242">
         <v>5</v>
@@ -47569,10 +47599,10 @@
         <v>0.8</v>
       </c>
       <c r="AS242">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT242">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AU242">
         <v>1.15</v>
@@ -47760,10 +47790,10 @@
         <v>0.6</v>
       </c>
       <c r="AS243">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AT243">
-        <v>0.57</v>
+        <v>0.68</v>
       </c>
       <c r="AU243">
         <v>1.42</v>
@@ -47864,7 +47894,7 @@
         <v>137</v>
       </c>
       <c r="P244" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q244">
         <v>3</v>
@@ -47951,10 +47981,10 @@
         <v>1.95</v>
       </c>
       <c r="AS244">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT244">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AU244">
         <v>1.14</v>
@@ -48055,7 +48085,7 @@
         <v>214</v>
       </c>
       <c r="P245" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q245">
         <v>1</v>
@@ -48142,10 +48172,10 @@
         <v>1.65</v>
       </c>
       <c r="AS245">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AT245">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AU245">
         <v>1.39</v>
@@ -48333,10 +48363,10 @@
         <v>1</v>
       </c>
       <c r="AS246">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT246">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU246">
         <v>1.41</v>
@@ -48437,7 +48467,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q247">
         <v>5</v>
@@ -48524,10 +48554,10 @@
         <v>1.05</v>
       </c>
       <c r="AS247">
-        <v>2.33</v>
+        <v>2.36</v>
       </c>
       <c r="AT247">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AU247">
         <v>1.39</v>
@@ -48715,10 +48745,10 @@
         <v>1.3</v>
       </c>
       <c r="AS248">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT248">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AU248">
         <v>1.38</v>
@@ -48906,10 +48936,10 @@
         <v>0.65</v>
       </c>
       <c r="AS249">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
       <c r="AT249">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AU249">
         <v>1.55</v>
@@ -49097,10 +49127,10 @@
         <v>1.9</v>
       </c>
       <c r="AS250">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT250">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="AU250">
         <v>1.34</v>
@@ -49288,10 +49318,10 @@
         <v>2.1</v>
       </c>
       <c r="AS251">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AT251">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="AU251">
         <v>1.52</v>
@@ -49479,10 +49509,10 @@
         <v>1</v>
       </c>
       <c r="AS252">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT252">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AU252">
         <v>1.51</v>
@@ -49583,7 +49613,7 @@
         <v>232</v>
       </c>
       <c r="P253" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q253">
         <v>3</v>
@@ -49670,10 +49700,10 @@
         <v>0.85</v>
       </c>
       <c r="AS253">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT253">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU253">
         <v>1.43</v>
@@ -49724,6 +49754,2298 @@
         <v>12</v>
       </c>
       <c r="BK253">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:63">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>2789153</v>
+      </c>
+      <c r="C254" t="s">
+        <v>63</v>
+      </c>
+      <c r="D254" t="s">
+        <v>64</v>
+      </c>
+      <c r="E254" s="2">
+        <v>44871.70833333334</v>
+      </c>
+      <c r="F254">
+        <v>21</v>
+      </c>
+      <c r="G254" t="s">
+        <v>73</v>
+      </c>
+      <c r="H254" t="s">
+        <v>69</v>
+      </c>
+      <c r="I254">
+        <v>3</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>4</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
+      <c r="M254">
+        <v>2</v>
+      </c>
+      <c r="N254">
+        <v>6</v>
+      </c>
+      <c r="O254" t="s">
+        <v>233</v>
+      </c>
+      <c r="P254" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q254">
+        <v>4</v>
+      </c>
+      <c r="R254">
+        <v>9</v>
+      </c>
+      <c r="S254">
+        <v>13</v>
+      </c>
+      <c r="T254">
+        <v>0</v>
+      </c>
+      <c r="U254">
+        <v>0</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+      <c r="AB254">
+        <v>0</v>
+      </c>
+      <c r="AC254">
+        <v>1.37</v>
+      </c>
+      <c r="AD254">
+        <v>4.45</v>
+      </c>
+      <c r="AE254">
+        <v>6.8</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>0</v>
+      </c>
+      <c r="AH254">
+        <v>0</v>
+      </c>
+      <c r="AI254">
+        <v>0</v>
+      </c>
+      <c r="AJ254">
+        <v>1.86</v>
+      </c>
+      <c r="AK254">
+        <v>2</v>
+      </c>
+      <c r="AL254">
+        <v>0</v>
+      </c>
+      <c r="AM254">
+        <v>0</v>
+      </c>
+      <c r="AN254">
+        <v>0</v>
+      </c>
+      <c r="AO254">
+        <v>0</v>
+      </c>
+      <c r="AP254">
+        <v>0</v>
+      </c>
+      <c r="AQ254">
+        <v>2.48</v>
+      </c>
+      <c r="AR254">
+        <v>0.95</v>
+      </c>
+      <c r="AS254">
+        <v>2.5</v>
+      </c>
+      <c r="AT254">
+        <v>0.91</v>
+      </c>
+      <c r="AU254">
+        <v>1.51</v>
+      </c>
+      <c r="AV254">
+        <v>1.12</v>
+      </c>
+      <c r="AW254">
+        <v>2.63</v>
+      </c>
+      <c r="AX254">
+        <v>0</v>
+      </c>
+      <c r="AY254">
+        <v>0</v>
+      </c>
+      <c r="AZ254">
+        <v>0</v>
+      </c>
+      <c r="BA254">
+        <v>0</v>
+      </c>
+      <c r="BB254">
+        <v>0</v>
+      </c>
+      <c r="BC254">
+        <v>0</v>
+      </c>
+      <c r="BD254">
+        <v>0</v>
+      </c>
+      <c r="BE254">
+        <v>0</v>
+      </c>
+      <c r="BF254">
+        <v>7</v>
+      </c>
+      <c r="BG254">
+        <v>4</v>
+      </c>
+      <c r="BH254">
+        <v>0</v>
+      </c>
+      <c r="BI254">
+        <v>5</v>
+      </c>
+      <c r="BJ254">
+        <v>7</v>
+      </c>
+      <c r="BK254">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:63">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>2789152</v>
+      </c>
+      <c r="C255" t="s">
+        <v>63</v>
+      </c>
+      <c r="D255" t="s">
+        <v>64</v>
+      </c>
+      <c r="E255" s="2">
+        <v>44871.8125</v>
+      </c>
+      <c r="F255">
+        <v>21</v>
+      </c>
+      <c r="G255" t="s">
+        <v>74</v>
+      </c>
+      <c r="H255" t="s">
+        <v>71</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>234</v>
+      </c>
+      <c r="P255" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q255">
+        <v>5</v>
+      </c>
+      <c r="R255">
+        <v>3</v>
+      </c>
+      <c r="S255">
+        <v>8</v>
+      </c>
+      <c r="T255">
+        <v>0</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+      <c r="AB255">
+        <v>0</v>
+      </c>
+      <c r="AC255">
+        <v>2.07</v>
+      </c>
+      <c r="AD255">
+        <v>3.35</v>
+      </c>
+      <c r="AE255">
+        <v>3.1</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>0</v>
+      </c>
+      <c r="AI255">
+        <v>0</v>
+      </c>
+      <c r="AJ255">
+        <v>2</v>
+      </c>
+      <c r="AK255">
+        <v>1.86</v>
+      </c>
+      <c r="AL255">
+        <v>0</v>
+      </c>
+      <c r="AM255">
+        <v>0</v>
+      </c>
+      <c r="AN255">
+        <v>0</v>
+      </c>
+      <c r="AO255">
+        <v>0</v>
+      </c>
+      <c r="AP255">
+        <v>0</v>
+      </c>
+      <c r="AQ255">
+        <v>1.24</v>
+      </c>
+      <c r="AR255">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS255">
+        <v>1.32</v>
+      </c>
+      <c r="AT255">
+        <v>0.77</v>
+      </c>
+      <c r="AU255">
+        <v>1.37</v>
+      </c>
+      <c r="AV255">
+        <v>1.28</v>
+      </c>
+      <c r="AW255">
+        <v>2.65</v>
+      </c>
+      <c r="AX255">
+        <v>0</v>
+      </c>
+      <c r="AY255">
+        <v>0</v>
+      </c>
+      <c r="AZ255">
+        <v>0</v>
+      </c>
+      <c r="BA255">
+        <v>0</v>
+      </c>
+      <c r="BB255">
+        <v>0</v>
+      </c>
+      <c r="BC255">
+        <v>0</v>
+      </c>
+      <c r="BD255">
+        <v>0</v>
+      </c>
+      <c r="BE255">
+        <v>0</v>
+      </c>
+      <c r="BF255">
+        <v>5</v>
+      </c>
+      <c r="BG255">
+        <v>5</v>
+      </c>
+      <c r="BH255">
+        <v>3</v>
+      </c>
+      <c r="BI255">
+        <v>3</v>
+      </c>
+      <c r="BJ255">
+        <v>8</v>
+      </c>
+      <c r="BK255">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:63">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>2789148</v>
+      </c>
+      <c r="C256" t="s">
+        <v>63</v>
+      </c>
+      <c r="D256" t="s">
+        <v>64</v>
+      </c>
+      <c r="E256" s="2">
+        <v>44872.8125</v>
+      </c>
+      <c r="F256">
+        <v>21</v>
+      </c>
+      <c r="G256" t="s">
+        <v>70</v>
+      </c>
+      <c r="H256" t="s">
+        <v>67</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>1</v>
+      </c>
+      <c r="O256" t="s">
+        <v>179</v>
+      </c>
+      <c r="P256" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q256">
+        <v>13</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>13</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>0</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+      <c r="AB256">
+        <v>0</v>
+      </c>
+      <c r="AC256">
+        <v>1.18</v>
+      </c>
+      <c r="AD256">
+        <v>5.9</v>
+      </c>
+      <c r="AE256">
+        <v>11.8</v>
+      </c>
+      <c r="AF256">
+        <v>0</v>
+      </c>
+      <c r="AG256">
+        <v>0</v>
+      </c>
+      <c r="AH256">
+        <v>0</v>
+      </c>
+      <c r="AI256">
+        <v>0</v>
+      </c>
+      <c r="AJ256">
+        <v>1.56</v>
+      </c>
+      <c r="AK256">
+        <v>2.16</v>
+      </c>
+      <c r="AL256">
+        <v>0</v>
+      </c>
+      <c r="AM256">
+        <v>0</v>
+      </c>
+      <c r="AN256">
+        <v>0</v>
+      </c>
+      <c r="AO256">
+        <v>0</v>
+      </c>
+      <c r="AP256">
+        <v>0</v>
+      </c>
+      <c r="AQ256">
+        <v>2.33</v>
+      </c>
+      <c r="AR256">
+        <v>0.95</v>
+      </c>
+      <c r="AS256">
+        <v>2.36</v>
+      </c>
+      <c r="AT256">
+        <v>0.91</v>
+      </c>
+      <c r="AU256">
+        <v>1.39</v>
+      </c>
+      <c r="AV256">
+        <v>1.07</v>
+      </c>
+      <c r="AW256">
+        <v>2.46</v>
+      </c>
+      <c r="AX256">
+        <v>0</v>
+      </c>
+      <c r="AY256">
+        <v>0</v>
+      </c>
+      <c r="AZ256">
+        <v>0</v>
+      </c>
+      <c r="BA256">
+        <v>0</v>
+      </c>
+      <c r="BB256">
+        <v>0</v>
+      </c>
+      <c r="BC256">
+        <v>0</v>
+      </c>
+      <c r="BD256">
+        <v>0</v>
+      </c>
+      <c r="BE256">
+        <v>0</v>
+      </c>
+      <c r="BF256">
+        <v>9</v>
+      </c>
+      <c r="BG256">
+        <v>3</v>
+      </c>
+      <c r="BH256">
+        <v>8</v>
+      </c>
+      <c r="BI256">
+        <v>1</v>
+      </c>
+      <c r="BJ256">
+        <v>17</v>
+      </c>
+      <c r="BK256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:63">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>2789149</v>
+      </c>
+      <c r="C257" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" t="s">
+        <v>64</v>
+      </c>
+      <c r="E257" s="2">
+        <v>44873.8125</v>
+      </c>
+      <c r="F257">
+        <v>21</v>
+      </c>
+      <c r="G257" t="s">
+        <v>68</v>
+      </c>
+      <c r="H257" t="s">
+        <v>76</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>2</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="O257" t="s">
+        <v>77</v>
+      </c>
+      <c r="P257" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q257">
+        <v>9</v>
+      </c>
+      <c r="R257">
+        <v>3</v>
+      </c>
+      <c r="S257">
+        <v>12</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+      <c r="V257">
+        <v>0</v>
+      </c>
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+      <c r="AB257">
+        <v>0</v>
+      </c>
+      <c r="AC257">
+        <v>2.91</v>
+      </c>
+      <c r="AD257">
+        <v>3.26</v>
+      </c>
+      <c r="AE257">
+        <v>2.62</v>
+      </c>
+      <c r="AF257">
+        <v>0</v>
+      </c>
+      <c r="AG257">
+        <v>0</v>
+      </c>
+      <c r="AH257">
+        <v>0</v>
+      </c>
+      <c r="AI257">
+        <v>0</v>
+      </c>
+      <c r="AJ257">
+        <v>2.09</v>
+      </c>
+      <c r="AK257">
+        <v>1.69</v>
+      </c>
+      <c r="AL257">
+        <v>0</v>
+      </c>
+      <c r="AM257">
+        <v>0</v>
+      </c>
+      <c r="AN257">
+        <v>0</v>
+      </c>
+      <c r="AO257">
+        <v>0</v>
+      </c>
+      <c r="AP257">
+        <v>0</v>
+      </c>
+      <c r="AQ257">
+        <v>0.71</v>
+      </c>
+      <c r="AR257">
+        <v>1</v>
+      </c>
+      <c r="AS257">
+        <v>0.68</v>
+      </c>
+      <c r="AT257">
+        <v>1.09</v>
+      </c>
+      <c r="AU257">
+        <v>1.39</v>
+      </c>
+      <c r="AV257">
+        <v>1.25</v>
+      </c>
+      <c r="AW257">
+        <v>2.64</v>
+      </c>
+      <c r="AX257">
+        <v>0</v>
+      </c>
+      <c r="AY257">
+        <v>0</v>
+      </c>
+      <c r="AZ257">
+        <v>0</v>
+      </c>
+      <c r="BA257">
+        <v>0</v>
+      </c>
+      <c r="BB257">
+        <v>0</v>
+      </c>
+      <c r="BC257">
+        <v>0</v>
+      </c>
+      <c r="BD257">
+        <v>0</v>
+      </c>
+      <c r="BE257">
+        <v>0</v>
+      </c>
+      <c r="BF257">
+        <v>3</v>
+      </c>
+      <c r="BG257">
+        <v>8</v>
+      </c>
+      <c r="BH257">
+        <v>17</v>
+      </c>
+      <c r="BI257">
+        <v>6</v>
+      </c>
+      <c r="BJ257">
+        <v>20</v>
+      </c>
+      <c r="BK257">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:63">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>2789150</v>
+      </c>
+      <c r="C258" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" t="s">
+        <v>64</v>
+      </c>
+      <c r="E258" s="2">
+        <v>44873.8125</v>
+      </c>
+      <c r="F258">
+        <v>21</v>
+      </c>
+      <c r="G258" t="s">
+        <v>65</v>
+      </c>
+      <c r="H258" t="s">
+        <v>66</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>2</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258" t="s">
+        <v>77</v>
+      </c>
+      <c r="P258" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q258">
+        <v>3</v>
+      </c>
+      <c r="R258">
+        <v>4</v>
+      </c>
+      <c r="S258">
+        <v>7</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+      <c r="V258">
+        <v>0</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+      <c r="AB258">
+        <v>0</v>
+      </c>
+      <c r="AC258">
+        <v>5.66</v>
+      </c>
+      <c r="AD258">
+        <v>4.28</v>
+      </c>
+      <c r="AE258">
+        <v>1.6</v>
+      </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>0</v>
+      </c>
+      <c r="AH258">
+        <v>0</v>
+      </c>
+      <c r="AI258">
+        <v>0</v>
+      </c>
+      <c r="AJ258">
+        <v>1.71</v>
+      </c>
+      <c r="AK258">
+        <v>2.06</v>
+      </c>
+      <c r="AL258">
+        <v>0</v>
+      </c>
+      <c r="AM258">
+        <v>0</v>
+      </c>
+      <c r="AN258">
+        <v>0</v>
+      </c>
+      <c r="AO258">
+        <v>0</v>
+      </c>
+      <c r="AP258">
+        <v>0</v>
+      </c>
+      <c r="AQ258">
+        <v>1.33</v>
+      </c>
+      <c r="AR258">
+        <v>2</v>
+      </c>
+      <c r="AS258">
+        <v>1.27</v>
+      </c>
+      <c r="AT258">
+        <v>2.05</v>
+      </c>
+      <c r="AU258">
+        <v>1.15</v>
+      </c>
+      <c r="AV258">
+        <v>1.25</v>
+      </c>
+      <c r="AW258">
+        <v>2.4</v>
+      </c>
+      <c r="AX258">
+        <v>0</v>
+      </c>
+      <c r="AY258">
+        <v>0</v>
+      </c>
+      <c r="AZ258">
+        <v>0</v>
+      </c>
+      <c r="BA258">
+        <v>0</v>
+      </c>
+      <c r="BB258">
+        <v>0</v>
+      </c>
+      <c r="BC258">
+        <v>0</v>
+      </c>
+      <c r="BD258">
+        <v>0</v>
+      </c>
+      <c r="BE258">
+        <v>0</v>
+      </c>
+      <c r="BF258">
+        <v>4</v>
+      </c>
+      <c r="BG258">
+        <v>4</v>
+      </c>
+      <c r="BH258">
+        <v>1</v>
+      </c>
+      <c r="BI258">
+        <v>3</v>
+      </c>
+      <c r="BJ258">
+        <v>5</v>
+      </c>
+      <c r="BK258">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:63">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>2789151</v>
+      </c>
+      <c r="C259" t="s">
+        <v>63</v>
+      </c>
+      <c r="D259" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="2">
+        <v>44873.8125</v>
+      </c>
+      <c r="F259">
+        <v>21</v>
+      </c>
+      <c r="G259" t="s">
+        <v>75</v>
+      </c>
+      <c r="H259" t="s">
+        <v>72</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>77</v>
+      </c>
+      <c r="P259" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q259">
+        <v>9</v>
+      </c>
+      <c r="R259">
+        <v>1</v>
+      </c>
+      <c r="S259">
+        <v>10</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>0</v>
+      </c>
+      <c r="V259">
+        <v>0</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
+      <c r="AB259">
+        <v>0</v>
+      </c>
+      <c r="AC259">
+        <v>1.81</v>
+      </c>
+      <c r="AD259">
+        <v>3.68</v>
+      </c>
+      <c r="AE259">
+        <v>4.71</v>
+      </c>
+      <c r="AF259">
+        <v>0</v>
+      </c>
+      <c r="AG259">
+        <v>0</v>
+      </c>
+      <c r="AH259">
+        <v>0</v>
+      </c>
+      <c r="AI259">
+        <v>0</v>
+      </c>
+      <c r="AJ259">
+        <v>1.99</v>
+      </c>
+      <c r="AK259">
+        <v>1.8</v>
+      </c>
+      <c r="AL259">
+        <v>0</v>
+      </c>
+      <c r="AM259">
+        <v>0</v>
+      </c>
+      <c r="AN259">
+        <v>0</v>
+      </c>
+      <c r="AO259">
+        <v>0</v>
+      </c>
+      <c r="AP259">
+        <v>0</v>
+      </c>
+      <c r="AQ259">
+        <v>1.52</v>
+      </c>
+      <c r="AR259">
+        <v>0.57</v>
+      </c>
+      <c r="AS259">
+        <v>1.45</v>
+      </c>
+      <c r="AT259">
+        <v>0.68</v>
+      </c>
+      <c r="AU259">
+        <v>1.4</v>
+      </c>
+      <c r="AV259">
+        <v>1.29</v>
+      </c>
+      <c r="AW259">
+        <v>2.69</v>
+      </c>
+      <c r="AX259">
+        <v>0</v>
+      </c>
+      <c r="AY259">
+        <v>0</v>
+      </c>
+      <c r="AZ259">
+        <v>0</v>
+      </c>
+      <c r="BA259">
+        <v>0</v>
+      </c>
+      <c r="BB259">
+        <v>0</v>
+      </c>
+      <c r="BC259">
+        <v>0</v>
+      </c>
+      <c r="BD259">
+        <v>0</v>
+      </c>
+      <c r="BE259">
+        <v>0</v>
+      </c>
+      <c r="BF259">
+        <v>6</v>
+      </c>
+      <c r="BG259">
+        <v>2</v>
+      </c>
+      <c r="BH259">
+        <v>7</v>
+      </c>
+      <c r="BI259">
+        <v>2</v>
+      </c>
+      <c r="BJ259">
+        <v>13</v>
+      </c>
+      <c r="BK259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:63">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>2789155</v>
+      </c>
+      <c r="C260" t="s">
+        <v>63</v>
+      </c>
+      <c r="D260" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="2">
+        <v>44877.79166666666</v>
+      </c>
+      <c r="F260">
+        <v>22</v>
+      </c>
+      <c r="G260" t="s">
+        <v>71</v>
+      </c>
+      <c r="H260" t="s">
+        <v>73</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>235</v>
+      </c>
+      <c r="P260" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q260">
+        <v>2</v>
+      </c>
+      <c r="R260">
+        <v>3</v>
+      </c>
+      <c r="S260">
+        <v>5</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>0</v>
+      </c>
+      <c r="V260">
+        <v>0</v>
+      </c>
+      <c r="W260">
+        <v>0</v>
+      </c>
+      <c r="X260">
+        <v>0</v>
+      </c>
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+      <c r="AB260">
+        <v>0</v>
+      </c>
+      <c r="AC260">
+        <v>3.5</v>
+      </c>
+      <c r="AD260">
+        <v>3.5</v>
+      </c>
+      <c r="AE260">
+        <v>1.95</v>
+      </c>
+      <c r="AF260">
+        <v>0</v>
+      </c>
+      <c r="AG260">
+        <v>0</v>
+      </c>
+      <c r="AH260">
+        <v>0</v>
+      </c>
+      <c r="AI260">
+        <v>0</v>
+      </c>
+      <c r="AJ260">
+        <v>1.8</v>
+      </c>
+      <c r="AK260">
+        <v>1.95</v>
+      </c>
+      <c r="AL260">
+        <v>0</v>
+      </c>
+      <c r="AM260">
+        <v>0</v>
+      </c>
+      <c r="AN260">
+        <v>0</v>
+      </c>
+      <c r="AO260">
+        <v>0</v>
+      </c>
+      <c r="AP260">
+        <v>0</v>
+      </c>
+      <c r="AQ260">
+        <v>1.57</v>
+      </c>
+      <c r="AR260">
+        <v>1.71</v>
+      </c>
+      <c r="AS260">
+        <v>1.64</v>
+      </c>
+      <c r="AT260">
+        <v>1.64</v>
+      </c>
+      <c r="AU260">
+        <v>1.33</v>
+      </c>
+      <c r="AV260">
+        <v>1.54</v>
+      </c>
+      <c r="AW260">
+        <v>2.87</v>
+      </c>
+      <c r="AX260">
+        <v>0</v>
+      </c>
+      <c r="AY260">
+        <v>0</v>
+      </c>
+      <c r="AZ260">
+        <v>0</v>
+      </c>
+      <c r="BA260">
+        <v>0</v>
+      </c>
+      <c r="BB260">
+        <v>0</v>
+      </c>
+      <c r="BC260">
+        <v>0</v>
+      </c>
+      <c r="BD260">
+        <v>0</v>
+      </c>
+      <c r="BE260">
+        <v>0</v>
+      </c>
+      <c r="BF260">
+        <v>5</v>
+      </c>
+      <c r="BG260">
+        <v>3</v>
+      </c>
+      <c r="BH260">
+        <v>4</v>
+      </c>
+      <c r="BI260">
+        <v>3</v>
+      </c>
+      <c r="BJ260">
+        <v>9</v>
+      </c>
+      <c r="BK260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:63">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>2789154</v>
+      </c>
+      <c r="C261" t="s">
+        <v>63</v>
+      </c>
+      <c r="D261" t="s">
+        <v>64</v>
+      </c>
+      <c r="E261" s="2">
+        <v>44877.79166666666</v>
+      </c>
+      <c r="F261">
+        <v>22</v>
+      </c>
+      <c r="G261" t="s">
+        <v>69</v>
+      </c>
+      <c r="H261" t="s">
+        <v>70</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>2</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>4</v>
+      </c>
+      <c r="O261" t="s">
+        <v>179</v>
+      </c>
+      <c r="P261" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q261">
+        <v>5</v>
+      </c>
+      <c r="R261">
+        <v>3</v>
+      </c>
+      <c r="S261">
+        <v>8</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+      <c r="V261">
+        <v>0</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+      <c r="AB261">
+        <v>0</v>
+      </c>
+      <c r="AC261">
+        <v>4.1</v>
+      </c>
+      <c r="AD261">
+        <v>3.4</v>
+      </c>
+      <c r="AE261">
+        <v>1.85</v>
+      </c>
+      <c r="AF261">
+        <v>0</v>
+      </c>
+      <c r="AG261">
+        <v>0</v>
+      </c>
+      <c r="AH261">
+        <v>0</v>
+      </c>
+      <c r="AI261">
+        <v>0</v>
+      </c>
+      <c r="AJ261">
+        <v>1.91</v>
+      </c>
+      <c r="AK261">
+        <v>1.83</v>
+      </c>
+      <c r="AL261">
+        <v>0</v>
+      </c>
+      <c r="AM261">
+        <v>0</v>
+      </c>
+      <c r="AN261">
+        <v>0</v>
+      </c>
+      <c r="AO261">
+        <v>0</v>
+      </c>
+      <c r="AP261">
+        <v>0</v>
+      </c>
+      <c r="AQ261">
+        <v>1.43</v>
+      </c>
+      <c r="AR261">
+        <v>2.05</v>
+      </c>
+      <c r="AS261">
+        <v>1.36</v>
+      </c>
+      <c r="AT261">
+        <v>2.09</v>
+      </c>
+      <c r="AU261">
+        <v>1.36</v>
+      </c>
+      <c r="AV261">
+        <v>1.43</v>
+      </c>
+      <c r="AW261">
+        <v>2.79</v>
+      </c>
+      <c r="AX261">
+        <v>0</v>
+      </c>
+      <c r="AY261">
+        <v>0</v>
+      </c>
+      <c r="AZ261">
+        <v>0</v>
+      </c>
+      <c r="BA261">
+        <v>0</v>
+      </c>
+      <c r="BB261">
+        <v>0</v>
+      </c>
+      <c r="BC261">
+        <v>0</v>
+      </c>
+      <c r="BD261">
+        <v>0</v>
+      </c>
+      <c r="BE261">
+        <v>0</v>
+      </c>
+      <c r="BF261">
+        <v>5</v>
+      </c>
+      <c r="BG261">
+        <v>7</v>
+      </c>
+      <c r="BH261">
+        <v>5</v>
+      </c>
+      <c r="BI261">
+        <v>8</v>
+      </c>
+      <c r="BJ261">
+        <v>10</v>
+      </c>
+      <c r="BK261">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:63">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>2789157</v>
+      </c>
+      <c r="C262" t="s">
+        <v>63</v>
+      </c>
+      <c r="D262" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="2">
+        <v>44877.79166666666</v>
+      </c>
+      <c r="F262">
+        <v>22</v>
+      </c>
+      <c r="G262" t="s">
+        <v>66</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>1</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" t="s">
+        <v>236</v>
+      </c>
+      <c r="P262" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q262">
+        <v>5</v>
+      </c>
+      <c r="R262">
+        <v>2</v>
+      </c>
+      <c r="S262">
+        <v>7</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>0</v>
+      </c>
+      <c r="V262">
+        <v>0</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+      <c r="AB262">
+        <v>0</v>
+      </c>
+      <c r="AC262">
+        <v>1.65</v>
+      </c>
+      <c r="AD262">
+        <v>3.6</v>
+      </c>
+      <c r="AE262">
+        <v>5.25</v>
+      </c>
+      <c r="AF262">
+        <v>0</v>
+      </c>
+      <c r="AG262">
+        <v>0</v>
+      </c>
+      <c r="AH262">
+        <v>0</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>1.8</v>
+      </c>
+      <c r="AK262">
+        <v>1.95</v>
+      </c>
+      <c r="AL262">
+        <v>0</v>
+      </c>
+      <c r="AM262">
+        <v>0</v>
+      </c>
+      <c r="AN262">
+        <v>0</v>
+      </c>
+      <c r="AO262">
+        <v>0</v>
+      </c>
+      <c r="AP262">
+        <v>0</v>
+      </c>
+      <c r="AQ262">
+        <v>2.19</v>
+      </c>
+      <c r="AR262">
+        <v>1.81</v>
+      </c>
+      <c r="AS262">
+        <v>2.14</v>
+      </c>
+      <c r="AT262">
+        <v>1.77</v>
+      </c>
+      <c r="AU262">
+        <v>1.54</v>
+      </c>
+      <c r="AV262">
+        <v>1.27</v>
+      </c>
+      <c r="AW262">
+        <v>2.81</v>
+      </c>
+      <c r="AX262">
+        <v>0</v>
+      </c>
+      <c r="AY262">
+        <v>0</v>
+      </c>
+      <c r="AZ262">
+        <v>0</v>
+      </c>
+      <c r="BA262">
+        <v>0</v>
+      </c>
+      <c r="BB262">
+        <v>0</v>
+      </c>
+      <c r="BC262">
+        <v>0</v>
+      </c>
+      <c r="BD262">
+        <v>0</v>
+      </c>
+      <c r="BE262">
+        <v>0</v>
+      </c>
+      <c r="BF262">
+        <v>3</v>
+      </c>
+      <c r="BG262">
+        <v>2</v>
+      </c>
+      <c r="BH262">
+        <v>3</v>
+      </c>
+      <c r="BI262">
+        <v>0</v>
+      </c>
+      <c r="BJ262">
+        <v>6</v>
+      </c>
+      <c r="BK262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:63">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>2789158</v>
+      </c>
+      <c r="C263" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" s="2">
+        <v>44878.70833333334</v>
+      </c>
+      <c r="F263">
+        <v>22</v>
+      </c>
+      <c r="G263" t="s">
+        <v>76</v>
+      </c>
+      <c r="H263" t="s">
+        <v>65</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263" t="s">
+        <v>77</v>
+      </c>
+      <c r="P263" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q263">
+        <v>3</v>
+      </c>
+      <c r="R263">
+        <v>2</v>
+      </c>
+      <c r="S263">
+        <v>5</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0</v>
+      </c>
+      <c r="V263">
+        <v>0</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+      <c r="AB263">
+        <v>0</v>
+      </c>
+      <c r="AC263">
+        <v>2.12</v>
+      </c>
+      <c r="AD263">
+        <v>3.34</v>
+      </c>
+      <c r="AE263">
+        <v>3.32</v>
+      </c>
+      <c r="AF263">
+        <v>0</v>
+      </c>
+      <c r="AG263">
+        <v>0</v>
+      </c>
+      <c r="AH263">
+        <v>0</v>
+      </c>
+      <c r="AI263">
+        <v>0</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>1.7</v>
+      </c>
+      <c r="AL263">
+        <v>0</v>
+      </c>
+      <c r="AM263">
+        <v>0</v>
+      </c>
+      <c r="AN263">
+        <v>0</v>
+      </c>
+      <c r="AO263">
+        <v>0</v>
+      </c>
+      <c r="AP263">
+        <v>0</v>
+      </c>
+      <c r="AQ263">
+        <v>1.24</v>
+      </c>
+      <c r="AR263">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS263">
+        <v>1.23</v>
+      </c>
+      <c r="AT263">
+        <v>0.82</v>
+      </c>
+      <c r="AU263">
+        <v>1.51</v>
+      </c>
+      <c r="AV263">
+        <v>1.18</v>
+      </c>
+      <c r="AW263">
+        <v>2.69</v>
+      </c>
+      <c r="AX263">
+        <v>0</v>
+      </c>
+      <c r="AY263">
+        <v>0</v>
+      </c>
+      <c r="AZ263">
+        <v>0</v>
+      </c>
+      <c r="BA263">
+        <v>0</v>
+      </c>
+      <c r="BB263">
+        <v>0</v>
+      </c>
+      <c r="BC263">
+        <v>0</v>
+      </c>
+      <c r="BD263">
+        <v>0</v>
+      </c>
+      <c r="BE263">
+        <v>0</v>
+      </c>
+      <c r="BF263">
+        <v>7</v>
+      </c>
+      <c r="BG263">
+        <v>3</v>
+      </c>
+      <c r="BH263">
+        <v>8</v>
+      </c>
+      <c r="BI263">
+        <v>1</v>
+      </c>
+      <c r="BJ263">
+        <v>15</v>
+      </c>
+      <c r="BK263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:63">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>2789156</v>
+      </c>
+      <c r="C264" t="s">
+        <v>63</v>
+      </c>
+      <c r="D264" t="s">
+        <v>64</v>
+      </c>
+      <c r="E264" s="2">
+        <v>44878.70833333334</v>
+      </c>
+      <c r="F264">
+        <v>22</v>
+      </c>
+      <c r="G264" t="s">
+        <v>72</v>
+      </c>
+      <c r="H264" t="s">
+        <v>74</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>2</v>
+      </c>
+      <c r="K264">
+        <v>2</v>
+      </c>
+      <c r="L264">
+        <v>4</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
+        <v>6</v>
+      </c>
+      <c r="O264" t="s">
+        <v>237</v>
+      </c>
+      <c r="P264" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q264">
+        <v>13</v>
+      </c>
+      <c r="R264">
+        <v>1</v>
+      </c>
+      <c r="S264">
+        <v>14</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264">
+        <v>0</v>
+      </c>
+      <c r="V264">
+        <v>0</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+      <c r="AB264">
+        <v>0</v>
+      </c>
+      <c r="AC264">
+        <v>1.95</v>
+      </c>
+      <c r="AD264">
+        <v>3.52</v>
+      </c>
+      <c r="AE264">
+        <v>3.66</v>
+      </c>
+      <c r="AF264">
+        <v>0</v>
+      </c>
+      <c r="AG264">
+        <v>0</v>
+      </c>
+      <c r="AH264">
+        <v>0</v>
+      </c>
+      <c r="AI264">
+        <v>0</v>
+      </c>
+      <c r="AJ264">
+        <v>1.89</v>
+      </c>
+      <c r="AK264">
+        <v>1.83</v>
+      </c>
+      <c r="AL264">
+        <v>0</v>
+      </c>
+      <c r="AM264">
+        <v>0</v>
+      </c>
+      <c r="AN264">
+        <v>0</v>
+      </c>
+      <c r="AO264">
+        <v>0</v>
+      </c>
+      <c r="AP264">
+        <v>0</v>
+      </c>
+      <c r="AQ264">
+        <v>1.43</v>
+      </c>
+      <c r="AR264">
+        <v>1.24</v>
+      </c>
+      <c r="AS264">
+        <v>1.5</v>
+      </c>
+      <c r="AT264">
+        <v>1.18</v>
+      </c>
+      <c r="AU264">
+        <v>1.44</v>
+      </c>
+      <c r="AV264">
+        <v>1.34</v>
+      </c>
+      <c r="AW264">
+        <v>2.78</v>
+      </c>
+      <c r="AX264">
+        <v>0</v>
+      </c>
+      <c r="AY264">
+        <v>0</v>
+      </c>
+      <c r="AZ264">
+        <v>0</v>
+      </c>
+      <c r="BA264">
+        <v>0</v>
+      </c>
+      <c r="BB264">
+        <v>0</v>
+      </c>
+      <c r="BC264">
+        <v>0</v>
+      </c>
+      <c r="BD264">
+        <v>0</v>
+      </c>
+      <c r="BE264">
+        <v>0</v>
+      </c>
+      <c r="BF264">
+        <v>8</v>
+      </c>
+      <c r="BG264">
+        <v>5</v>
+      </c>
+      <c r="BH264">
+        <v>9</v>
+      </c>
+      <c r="BI264">
+        <v>3</v>
+      </c>
+      <c r="BJ264">
+        <v>17</v>
+      </c>
+      <c r="BK264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:63">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>2789159</v>
+      </c>
+      <c r="C265" t="s">
+        <v>63</v>
+      </c>
+      <c r="D265" t="s">
+        <v>64</v>
+      </c>
+      <c r="E265" s="2">
+        <v>44878.70833333334</v>
+      </c>
+      <c r="F265">
+        <v>22</v>
+      </c>
+      <c r="G265" t="s">
+        <v>67</v>
+      </c>
+      <c r="H265" t="s">
+        <v>68</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265" t="s">
+        <v>77</v>
+      </c>
+      <c r="P265" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q265">
+        <v>2</v>
+      </c>
+      <c r="R265">
+        <v>6</v>
+      </c>
+      <c r="S265">
+        <v>8</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265">
+        <v>0</v>
+      </c>
+      <c r="V265">
+        <v>0</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+      <c r="AB265">
+        <v>0</v>
+      </c>
+      <c r="AC265">
+        <v>1.74</v>
+      </c>
+      <c r="AD265">
+        <v>3.82</v>
+      </c>
+      <c r="AE265">
+        <v>4.28</v>
+      </c>
+      <c r="AF265">
+        <v>0</v>
+      </c>
+      <c r="AG265">
+        <v>0</v>
+      </c>
+      <c r="AH265">
+        <v>0</v>
+      </c>
+      <c r="AI265">
+        <v>0</v>
+      </c>
+      <c r="AJ265">
+        <v>1.7</v>
+      </c>
+      <c r="AK265">
+        <v>2</v>
+      </c>
+      <c r="AL265">
+        <v>0</v>
+      </c>
+      <c r="AM265">
+        <v>0</v>
+      </c>
+      <c r="AN265">
+        <v>0</v>
+      </c>
+      <c r="AO265">
+        <v>0</v>
+      </c>
+      <c r="AP265">
+        <v>0</v>
+      </c>
+      <c r="AQ265">
+        <v>1.33</v>
+      </c>
+      <c r="AR265">
+        <v>0.62</v>
+      </c>
+      <c r="AS265">
+        <v>1.32</v>
+      </c>
+      <c r="AT265">
+        <v>0.64</v>
+      </c>
+      <c r="AU265">
+        <v>1.13</v>
+      </c>
+      <c r="AV265">
+        <v>1.13</v>
+      </c>
+      <c r="AW265">
+        <v>2.26</v>
+      </c>
+      <c r="AX265">
+        <v>0</v>
+      </c>
+      <c r="AY265">
+        <v>0</v>
+      </c>
+      <c r="AZ265">
+        <v>0</v>
+      </c>
+      <c r="BA265">
+        <v>0</v>
+      </c>
+      <c r="BB265">
+        <v>0</v>
+      </c>
+      <c r="BC265">
+        <v>0</v>
+      </c>
+      <c r="BD265">
+        <v>0</v>
+      </c>
+      <c r="BE265">
+        <v>0</v>
+      </c>
+      <c r="BF265">
+        <v>6</v>
+      </c>
+      <c r="BG265">
+        <v>4</v>
+      </c>
+      <c r="BH265">
+        <v>4</v>
+      </c>
+      <c r="BI265">
+        <v>4</v>
+      </c>
+      <c r="BJ265">
+        <v>10</v>
+      </c>
+      <c r="BK265">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
